--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55E64BDD-413D-4E4B-B070-2535C996888C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6119E7-CC74-6640-AA97-ED4AC9C81B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="1" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
+    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="1223">
   <si>
     <t>A methodology for identifying breakthrough topics using structural entropy</t>
   </si>
@@ -3595,6 +3595,117 @@
   </si>
   <si>
     <t>Venue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Topic Labeling model with Paired- Attention based on Pre-trained Deep Neural Network </t>
+  </si>
+  <si>
+    <t>International Joint Conference on Neural Networks (IJCNN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TLATR: Automatic Topic Labeling Using Automatic (Domain-Specific) Term Recognition </t>
+  </si>
+  <si>
+    <t>IEEE Access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Topic Labeling with Domain-Specific Knowledge Base: An Analysis of UK House of Commons Speeches 1935–2014 </t>
+  </si>
+  <si>
+    <t>Research &amp; Politics</t>
+  </si>
+  <si>
+    <t>Transfer learning for topic labeling: Analysis of the UK House of Commons speeches 1935–2014</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Generation of Topic Labels </t>
+  </si>
+  <si>
+    <t>SIGIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Rating to Rule Them All? Evidence of Multidimensionality in Human Assessment of Topic Labeling Quality </t>
+  </si>
+  <si>
+    <t>CIKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilingual Topic Labelling of News Topics using Ontological Mapping </t>
+  </si>
+  <si>
+    <t>ECIR</t>
+  </si>
+  <si>
+    <t>Multimodal Topic Labelling</t>
+  </si>
+  <si>
+    <t>EACL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BART-TL: Weakly-Supervised Topic Label Generation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principled Analysis of Energy Discourse across Domains with Thesaurus-based Automatic Topic Labeling </t>
+  </si>
+  <si>
+    <t>Annual Workshop of the Australasian Language Technology Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicit Semantic Analysis as a Means for Topic Labelling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moving beyond word lists: towards abstractive topic labels for human-like topics of scientific documents </t>
+  </si>
+  <si>
+    <t>Accepted to WIESP @ AACL-IJCNLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic topic labeling using graph-based pre-trained neural embedding </t>
+  </si>
+  <si>
+    <t>Neurocomputing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Semi-automated Approach for Identification of Trends in Android Ransomware Literature </t>
+  </si>
+  <si>
+    <t>Machine Learning for Networking (MLN)</t>
+  </si>
+  <si>
+    <t>Job satisfaction and employee turnover determinants in high contact services: Insights from Employees’Online reviews</t>
+  </si>
+  <si>
+    <t>Tourism Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracking the Time Trends of Swedish Literature and Finding Characteristics of Authors by Using Topic Modelling </t>
+  </si>
+  <si>
+    <t>Harnessing the "Wisdom of Employees" from Online Reviews</t>
+  </si>
+  <si>
+    <t>Annals of Tourism Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic Model or Topic Twaddle? Re-evaluating Semantic Interpretability Measures </t>
+  </si>
+  <si>
+    <t>NAACL</t>
+  </si>
+  <si>
+    <t>The informational value of employee online reviews</t>
+  </si>
+  <si>
+    <t>European Journal of Operational Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding Research Trends in Android Malware Research Using Information Modelling Techniques </t>
+  </si>
+  <si>
+    <t>Computers, Materials and Continua</t>
   </si>
 </sst>
 </file>
@@ -3618,12 +3729,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3638,9 +3779,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13448,20 +13594,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A500ACC7-7708-ED45-B02F-B4A7D5A5733F}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="103.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="95.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1184</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1222</v>
       </c>
     </row>
   </sheetData>

--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6119E7-CC74-6640-AA97-ED4AC9C81B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3B471B-54FC-4241-877F-B51D24C0C5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1277">
   <si>
     <t>A methodology for identifying breakthrough topics using structural entropy</t>
   </si>
@@ -3706,6 +3706,168 @@
   </si>
   <si>
     <t>Computers, Materials and Continua</t>
+  </si>
+  <si>
+    <t>Exploring the links between research demand and supply: The case of Chagas</t>
+  </si>
+  <si>
+    <t>SSRN Electronic Journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-Ranking Words to Improve Interpretability of Automatically Generated Topics </t>
+  </si>
+  <si>
+    <t>Same goal (improving topic interpretability)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Disentangled Adversarial Neural Topic Model for Separating Opinions from Plots in User Reviews </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-training and Fine-tuning Neural Topic Model: A Simple yet Effective Approach to Incorporating External Knowledge </t>
+  </si>
+  <si>
+    <t>ACL (not initially found)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finding Scientific Topics in Continuously Growing Text Corpora </t>
+  </si>
+  <si>
+    <t>Scholarly Document Processing (SDP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Community Topic: Topic model inference by consecutive word community discovery </t>
+  </si>
+  <si>
+    <t>COLING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Do Websites Say about Internet of Things Challenges? A Text Mining Approach </t>
+  </si>
+  <si>
+    <t>Science &amp; Technology Libraries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Topic Modeling with Cycle-Consistent Adversarial Training </t>
+  </si>
+  <si>
+    <t>EMNLP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Legitimacy of Wind Power in Germany </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mining quality determinants of product-service systems from user-generated contents </t>
+  </si>
+  <si>
+    <t>Quality Engineering</t>
+  </si>
+  <si>
+    <t>International Conference on Information Systems (ICIS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge Source Rankings for Semi-Supervised Topic Modeling </t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic Labeling of Topic Models Using Graph-Based Ranking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifying Major Research Areas and Minor Research Themes of Android Malware Analysis and Detection Field Using LSA </t>
+  </si>
+  <si>
+    <t>Complexity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On-Demand Recent Personal Tweets Summarization on Mobile Devices </t>
+  </si>
+  <si>
+    <t>Journal of the Association for Information Science and Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extractive and Abstractive Sentence Labelling of Sentiment-bearing Topics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Bayesian Topic Model for Human-Evaluated Interpretability </t>
+  </si>
+  <si>
+    <t>Conference on Language Resources and Evaluation (LREC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring the Factors Associated with Mental Health Attitude in China: A Structural Topic Modeling Approach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A topic-based patent analytics approach for exploring technological trends in smart manufacturing </t>
+  </si>
+  <si>
+    <t>Journal of Manufacturing Technology Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modeling the public attitude towards organic foods: a big data and text mining approach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Big Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierarchical Interpretation of Neural Text Classification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding Airline Passengers during Covid-19 Outbreak to Improve Service Quality: Topic Modeling Approach to Complaints with Latent Dirichlet Allocation Algorithm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation Research Record </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Voice of Drug Consumers: Online Textual Review Analysis Using Structural Topic Model </t>
+  </si>
+  <si>
+    <t>International Journal of Environmental Research and Public Health</t>
+  </si>
+  <si>
+    <t>Analyzing genderless fashion trends of consumers’ perceptions on social media: using unstructured big data analysis through Latent Dirichlet Allocation‐based topic modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fashion and Textiles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic modelling for theme park online reviews: analysis of Disneyland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Travel &amp; Tourism Marketing </t>
+  </si>
+  <si>
+    <t>Recent trends of green human resource management: Text mining and network analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Science and Pollution Research </t>
+  </si>
+  <si>
+    <t>What we talk about when we talk about EEMs: using text mining and topic modeling to understand building energy efficiency measures (1836-RP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Science and Technology for the Built Environment </t>
+  </si>
+  <si>
+    <t>Revealing industry challenge and business response to Covid-19: a text mining approach</t>
+  </si>
+  <si>
+    <t>International Journal of Contemporary Hospitality Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detection, Analysis, and Prediction of Research Topics with Scientific Knowledge Graphs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The use of citation context to detect the evolution of research topics: a large‐scale analysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientometrics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Structural Topic Modeling-Based Bibliometric Study of Sentiment Analysis Literature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognitive Computation </t>
   </si>
 </sst>
 </file>
@@ -13594,20 +13756,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A500ACC7-7708-ED45-B02F-B4A7D5A5733F}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="144.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="97.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1184</v>
       </c>
@@ -13615,7 +13778,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1186</v>
       </c>
@@ -13626,7 +13789,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1188</v>
       </c>
@@ -13637,15 +13800,21 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1190</v>
       </c>
       <c r="B4" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1192</v>
       </c>
@@ -13655,8 +13824,11 @@
       <c r="C5" s="1" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="5" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1194</v>
       </c>
@@ -13664,7 +13836,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>1196</v>
       </c>
@@ -13672,15 +13844,18 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>1198</v>
       </c>
       <c r="B8" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="6" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>1200</v>
       </c>
@@ -13688,7 +13863,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>1202</v>
       </c>
@@ -13696,7 +13871,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>1203</v>
       </c>
@@ -13704,7 +13879,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1206</v>
       </c>
@@ -13712,7 +13887,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>1208</v>
       </c>
@@ -13720,15 +13895,21 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>1210</v>
       </c>
       <c r="B14" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>1212</v>
       </c>
@@ -13736,7 +13917,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>1215</v>
       </c>
@@ -13766,6 +13947,213 @@
       </c>
       <c r="B19" t="s">
         <v>1222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1276</v>
       </c>
     </row>
   </sheetData>

--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3B471B-54FC-4241-877F-B51D24C0C5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F81E47-2E66-D54F-8E62-65846952A68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1309">
   <si>
     <t>A methodology for identifying breakthrough topics using structural entropy</t>
   </si>
@@ -3868,13 +3868,109 @@
   </si>
   <si>
     <t xml:space="preserve">Cognitive Computation </t>
+  </si>
+  <si>
+    <t>ssss 0953732520211876221</t>
+  </si>
+  <si>
+    <t>Scientometrics volume </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topics and Sentiments of Public Concerns Regarding COVID-19 Vaccines: Social Media Trend Analysis </t>
+  </si>
+  <si>
+    <t>Journal of Medical Internet Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exposing Emerging Trends in Smart Sustainable City Research Using Deep Autoencoders-Based Fuzzy C-Means </t>
+  </si>
+  <si>
+    <t>Sustainability</t>
+  </si>
+  <si>
+    <t>Exploring Sources of Satisfaction and Dissatisfaction in Airbnb Accommodation Using Unsupervised and Supervised Topic Modeling</t>
+  </si>
+  <si>
+    <t>Frontiers in Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality 4.0: big data analytics to explore service quality attributes and their relation to user sentiment in Airbnb reviews </t>
+  </si>
+  <si>
+    <t>International Journal of Hospitality Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TaxoCom: Topic Taxonomy Completion with Hierarchical Discovery of Novel Topic Clusters </t>
+  </si>
+  <si>
+    <t>The Web Conference (WWW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Performance of Topic Evolution Based on a Feature Maximization Measurement for the Linguistics Domain </t>
+  </si>
+  <si>
+    <t>Axioms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Computational Analysis of News Media Bias: A South African Case Study </t>
+  </si>
+  <si>
+    <t>South African Institute of Computer Scientists and Information Technologists (SAICSIT)</t>
+  </si>
+  <si>
+    <t>Discovering Interpretable Topics by Leveraging Common Sense Knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-CAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic Discovery via Latent Space Clustering of Pretrained Language Model Representations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic evolution, disruption and resilience in early COVID‐19 research </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A high‐resolution temporal and geospatial content analysis of Twitter posts related to the COVID‐19 pandemic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Computational Social Science </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Analysis of Programming Course Evaluations Before and After the Introduction of an Autograder </t>
+  </si>
+  <si>
+    <t>Conference on Information Technology Based Higher Education and Training (ITHET)</t>
+  </si>
+  <si>
+    <t>Understanding Anonymous Social Media Posts using Topic Modeling</t>
+  </si>
+  <si>
+    <t>International Conference on Humanoid, Nanotechnology, Information Technology, Communication and Control, Environment and Management (HNICEM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer expectations in the hotel industry during the COVID-19 pandemic: a global perspective using sentiment analysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tourism Recreation Research </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring the Development of Research, Technology and Business of Machine Tool Domain in New-Generation Information Technology Environment Based on Machine Learning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value creation in emerging technologies through text mining: the case of blockchain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology Analysis &amp; Strategic Management </t>
+  </si>
+  <si>
+    <t>Working Paper Series in Production and Energy, Institute for Industrial Production (IIP), Karlsruhe Institute of Technology (KIT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3886,6 +3982,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3938,10 +4042,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -3949,8 +4054,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -13756,16 +13864,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A500ACC7-7708-ED45-B02F-B4A7D5A5733F}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="144.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="149.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="129.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="97.6640625" customWidth="1"/>
     <col min="5" max="5" width="37.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -14001,6 +14109,9 @@
       <c r="A26" s="6" t="s">
         <v>1238</v>
       </c>
+      <c r="B26" s="7" t="s">
+        <v>1308</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -14050,12 +14161,12 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>1250</v>
       </c>
@@ -14063,7 +14174,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>1253</v>
       </c>
@@ -14071,7 +14182,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>1255</v>
       </c>
@@ -14079,12 +14190,12 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>1258</v>
       </c>
@@ -14092,7 +14203,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>1260</v>
       </c>
@@ -14100,7 +14211,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>1262</v>
       </c>
@@ -14108,7 +14219,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>1264</v>
       </c>
@@ -14116,7 +14227,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>1266</v>
       </c>
@@ -14124,7 +14235,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>1268</v>
       </c>
@@ -14132,7 +14243,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>1270</v>
       </c>
@@ -14140,7 +14251,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>1273</v>
       </c>
@@ -14148,15 +14259,158 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>1275</v>
       </c>
       <c r="B46" t="s">
         <v>1276</v>
       </c>
+      <c r="D46" s="8" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1307</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B26" r:id="rId1" display="https://www.econstor.eu/handle/10419/176726" xr:uid="{D289EACF-3DE1-704E-8C54-D6DB02CEF5BC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F81E47-2E66-D54F-8E62-65846952A68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFAE0F9-3466-9843-99B0-AC01985D05B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
     <sheet name="Selection" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -13867,7 +13867,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFAE0F9-3466-9843-99B0-AC01985D05B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93B0D99-92A4-6C40-8DB5-889456E259EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1960" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1322">
   <si>
     <t>A methodology for identifying breakthrough topics using structural entropy</t>
   </si>
@@ -3964,6 +3964,45 @@
   </si>
   <si>
     <t>Working Paper Series in Production and Energy, Institute for Industrial Production (IIP), Karlsruhe Institute of Technology (KIT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A weakly-supervised graph-based joint sentiment topic model for multi-topic sentiment analysis </t>
+  </si>
+  <si>
+    <t>Information Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessing technology legitimacy with topic models and sentiment analysis – The case of wind power in Germany </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Influence Factorization for identifying authorities in Twitter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge-Based Systems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supporting digital content marketing and messaging through topic modelling and decision trees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expert Systems With Applications </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detecting latent topics and trends in educational technologies over four decades using structural topic modeling: A retrospective of all volumes of Computers &amp; Education </t>
+  </si>
+  <si>
+    <t>Computers &amp; Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employing structural topic modelling to explore perceived service quality attributes in Airbnb accommodation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Journal of Hospitality Management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding the temporal evolution of COVID‐19 research through machine learning and natural language processing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understand research hotspots surrounding COVID-19 and other coronavirus infections using topic modeling </t>
   </si>
 </sst>
 </file>
@@ -3995,7 +4034,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4032,6 +4071,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4046,7 +4091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4056,6 +4101,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13864,10 +13910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A500ACC7-7708-ED45-B02F-B4A7D5A5733F}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13943,6 +13989,9 @@
       <c r="B6" t="s">
         <v>1195</v>
       </c>
+      <c r="D6" s="5" t="s">
+        <v>1311</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -14404,6 +14453,59 @@
       </c>
       <c r="B63" t="s">
         <v>1307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>1321</v>
       </c>
     </row>
   </sheetData>

--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93B0D99-92A4-6C40-8DB5-889456E259EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFFDAC4-9870-D045-ADD2-0A331D916995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="1322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="1339">
   <si>
     <t>A methodology for identifying breakthrough topics using structural entropy</t>
   </si>
@@ -4003,6 +4003,57 @@
   </si>
   <si>
     <t xml:space="preserve">Understand research hotspots surrounding COVID-19 and other coronavirus infections using topic modeling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online food delivery companies’ performance and consumers expectations during Covid-19: An investigation using machine learning approach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Retailing and Consumer Services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Decade of Sentic Computing: Topic Modeling and Bibliometric Analysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where Does LDA Sit for GitHub? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Conference on Automated Software Engineering Workshop (ASEW) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selecting the appropriate leading journal in Hospitality and Tourism research: a guide based on the topic‐journal fit and the JCR impact factor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentiment analysis researches story narrated by topic modeling approach </t>
+  </si>
+  <si>
+    <t>Social Sciences &amp; Humanities Open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic2Labels: A framework to annotate and classify the social media data through LDA topics and deep learning models for crisis response </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open data visualizations and analytics as tools for policy-making </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government Information Quarterly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierarchical neural topic modeling with manifold 2 regularization </t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Wide Web </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring the nexus between food and veg*n lifestyle via text mining-based online community analytics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Quality and Preference </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listen to E-scooter riders: Mining rider satisfaction factors from app store reviews </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation Research Part D </t>
   </si>
 </sst>
 </file>
@@ -4121,7 +4172,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4409,7 +4460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13910,10 +13961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A500ACC7-7708-ED45-B02F-B4A7D5A5733F}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14508,6 +14559,86 @@
         <v>1321</v>
       </c>
     </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1338</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1" display="https://www.econstor.eu/handle/10419/176726" xr:uid="{D289EACF-3DE1-704E-8C54-D6DB02CEF5BC}"/>

--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFFDAC4-9870-D045-ADD2-0A331D916995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEA5F2B-B8DC-3E4F-82FF-77E9321CCBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1340">
   <si>
     <t>A methodology for identifying breakthrough topics using structural entropy</t>
   </si>
@@ -4054,6 +4054,9 @@
   </si>
   <si>
     <t xml:space="preserve">Transportation Research Part D </t>
+  </si>
+  <si>
+    <t xml:space="preserve">On the evolution of research in hypersonics: application of natural language processing and machine learning </t>
   </si>
 </sst>
 </file>
@@ -13961,10 +13964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A500ACC7-7708-ED45-B02F-B4A7D5A5733F}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14639,6 +14642,11 @@
         <v>1338</v>
       </c>
     </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>1339</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1" display="https://www.econstor.eu/handle/10419/176726" xr:uid="{D289EACF-3DE1-704E-8C54-D6DB02CEF5BC}"/>

--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEA5F2B-B8DC-3E4F-82FF-77E9321CCBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E16B73-4CDD-9143-97FA-64E526755B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1358">
   <si>
     <t>A methodology for identifying breakthrough topics using structural entropy</t>
   </si>
@@ -4057,6 +4057,60 @@
   </si>
   <si>
     <t xml:space="preserve">On the evolution of research in hypersonics: application of natural language processing and machine learning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction Disputes and Associated Contractual Knowledge Discovery Using Unstructured Text-Heavy Data: Legal Cases in the United Kingdom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierarchical Topic Mining via Joint Spherical Tree and Text Embedding </t>
+  </si>
+  <si>
+    <t>KDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scientometric analysis of the term ’microbiota’ in research publications (1999–2017): a second youth of a century-old concept </t>
+  </si>
+  <si>
+    <t>FEMS Microbiology Letters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Models for Documents with Metadata </t>
+  </si>
+  <si>
+    <t>ACL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A text-based monitoring tool for the legitimacy and guidance of technological innovation systems </t>
+  </si>
+  <si>
+    <t>Technology in Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HyperMiner: Topic Taxonomy Mining with Hyperbolic Embedding </t>
+  </si>
+  <si>
+    <t>A topic-sensitive trust evaluation approach for users in online communities (Knowledge-based systems)</t>
+  </si>
+  <si>
+    <t>Knowledge-Based Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word2vec-based latent semantic analysis (W2V-LSA) for topic modeling: A study on blockchain technology trend analysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text Classification Using Label Names Only: A Language Model Self-Training Approach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding music streaming services via text mining of online customer reviews </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronic Commerce Research and Applications </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoRel: Seed-Guided Topical Taxonomy Construction by Concept Learning and Relation Transferring </t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Journal of Sport and Exercise Psychology </t>
   </si>
 </sst>
 </file>
@@ -4145,7 +4199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4156,6 +4210,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4175,7 +4230,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4463,7 +4518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13964,10 +14019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A500ACC7-7708-ED45-B02F-B4A7D5A5733F}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14009,11 +14064,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>1190</v>
+      <c r="A4" s="2" t="s">
+        <v>1203</v>
       </c>
       <c r="B4" t="s">
-        <v>1191</v>
+        <v>1204</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1225</v>
@@ -14023,11 +14078,11 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1192</v>
+      <c r="A5" s="2" t="s">
+        <v>1206</v>
       </c>
       <c r="B5" t="s">
-        <v>1191</v>
+        <v>1207</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1193</v>
@@ -14037,81 +14092,81 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>1194</v>
+      <c r="A6" s="2" t="s">
+        <v>1208</v>
       </c>
       <c r="B6" t="s">
-        <v>1195</v>
+        <v>1209</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>1196</v>
+      <c r="A7" s="6" t="s">
+        <v>1210</v>
       </c>
       <c r="B7" t="s">
-        <v>1197</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>1198</v>
+      <c r="A8" s="6" t="s">
+        <v>1212</v>
       </c>
       <c r="B8" t="s">
-        <v>1199</v>
+        <v>1213</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>1200</v>
+      <c r="A9" s="2" t="s">
+        <v>1215</v>
       </c>
       <c r="B9" t="s">
-        <v>1201</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>1202</v>
+      <c r="A10" s="2" t="s">
+        <v>1219</v>
       </c>
       <c r="B10" t="s">
-        <v>1201</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>1203</v>
+      <c r="A11" s="6" t="s">
+        <v>1221</v>
       </c>
       <c r="B11" t="s">
-        <v>1204</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>1206</v>
+      <c r="A12" s="6" t="s">
+        <v>1223</v>
       </c>
       <c r="B12" t="s">
-        <v>1207</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1208</v>
+        <v>1230</v>
       </c>
       <c r="B13" t="s">
-        <v>1209</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>1210</v>
+        <v>1234</v>
       </c>
       <c r="B14" t="s">
-        <v>1211</v>
+        <v>1235</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>1228</v>
@@ -14122,534 +14177,624 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>1212</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1213</v>
+        <v>1238</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1215</v>
+        <v>1239</v>
       </c>
       <c r="B16" t="s">
-        <v>1216</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>1217</v>
+      <c r="A17" s="2" t="s">
+        <v>1083</v>
       </c>
       <c r="B17" t="s">
-        <v>1218</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1219</v>
+        <v>1242</v>
       </c>
       <c r="B18" t="s">
-        <v>1220</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>1221</v>
+      <c r="A19" s="2" t="s">
+        <v>1244</v>
       </c>
       <c r="B19" t="s">
-        <v>1222</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>1223</v>
+      <c r="A20" s="2" t="s">
+        <v>1245</v>
       </c>
       <c r="B20" t="s">
-        <v>1224</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>1227</v>
+      <c r="A21" s="2" t="s">
+        <v>1247</v>
       </c>
       <c r="B21" t="s">
-        <v>1218</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1231</v>
+      <c r="A22" s="6" t="s">
+        <v>1249</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>1232</v>
+      <c r="A23" s="6" t="s">
+        <v>1250</v>
       </c>
       <c r="B23" t="s">
-        <v>1233</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>1234</v>
+      <c r="A24" s="2" t="s">
+        <v>1253</v>
       </c>
       <c r="B24" t="s">
-        <v>1235</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>1236</v>
+      <c r="A25" s="2" t="s">
+        <v>1255</v>
       </c>
       <c r="B25" t="s">
-        <v>1237</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>1308</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1239</v>
+        <v>1258</v>
       </c>
       <c r="B27" t="s">
-        <v>1240</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1083</v>
+        <v>1260</v>
       </c>
       <c r="B28" t="s">
-        <v>1241</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1242</v>
+        <v>1262</v>
       </c>
       <c r="B29" t="s">
-        <v>1243</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1244</v>
+        <v>1264</v>
       </c>
       <c r="B30" t="s">
-        <v>1189</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>1245</v>
+      <c r="A31" s="6" t="s">
+        <v>1266</v>
       </c>
       <c r="B31" t="s">
-        <v>1246</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1247</v>
+        <v>1268</v>
       </c>
       <c r="B32" t="s">
-        <v>1248</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>1249</v>
+      <c r="A33" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>1250</v>
+      <c r="A34" s="2" t="s">
+        <v>1273</v>
       </c>
       <c r="B34" t="s">
-        <v>1251</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1253</v>
+        <v>1275</v>
       </c>
       <c r="B35" t="s">
-        <v>1254</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>1255</v>
+      <c r="A36" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>1256</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>1257</v>
+      <c r="A37" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1280</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1258</v>
+        <v>1281</v>
       </c>
       <c r="B38" t="s">
-        <v>1259</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1260</v>
+        <v>1283</v>
       </c>
       <c r="B39" t="s">
-        <v>1261</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1262</v>
+        <v>1285</v>
       </c>
       <c r="B40" t="s">
-        <v>1263</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>1264</v>
+      <c r="A41" s="6" t="s">
+        <v>1287</v>
       </c>
       <c r="B41" t="s">
-        <v>1265</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>1266</v>
+        <v>1289</v>
       </c>
       <c r="B42" t="s">
-        <v>1267</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1268</v>
+        <v>1291</v>
       </c>
       <c r="B43" t="s">
-        <v>1269</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>1270</v>
+      <c r="A44" s="6" t="s">
+        <v>1293</v>
       </c>
       <c r="B44" t="s">
-        <v>1271</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>1273</v>
+      <c r="A45" s="6" t="s">
+        <v>1295</v>
       </c>
       <c r="B45" t="s">
-        <v>1274</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>1275</v>
+        <v>1296</v>
       </c>
       <c r="B46" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>28</v>
+      <c r="A47" s="2" t="s">
+        <v>1297</v>
       </c>
       <c r="B47" t="s">
-        <v>1278</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1279</v>
+        <v>1299</v>
       </c>
       <c r="B48" t="s">
-        <v>1280</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1281</v>
+        <v>1301</v>
       </c>
       <c r="B49" t="s">
-        <v>1282</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1283</v>
+        <v>1303</v>
       </c>
       <c r="B50" t="s">
-        <v>1284</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1285</v>
+        <v>1305</v>
       </c>
       <c r="B51" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>1287</v>
+      <c r="A52" s="2" t="s">
+        <v>1306</v>
       </c>
       <c r="B52" t="s">
-        <v>1288</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>1289</v>
+      <c r="A53" s="2" t="s">
+        <v>1316</v>
       </c>
       <c r="B53" t="s">
-        <v>1290</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1291</v>
+        <v>1318</v>
       </c>
       <c r="B54" t="s">
-        <v>1292</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>1293</v>
+      <c r="A55" s="2" t="s">
+        <v>1320</v>
       </c>
       <c r="B55" t="s">
-        <v>1294</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1288</v>
+      <c r="A56" s="9" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>1296</v>
+      <c r="A57" s="6" t="s">
+        <v>1322</v>
       </c>
       <c r="B57" t="s">
-        <v>1274</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>1297</v>
+        <v>1324</v>
       </c>
       <c r="B58" t="s">
-        <v>1298</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>1299</v>
+      <c r="A59" s="6" t="s">
+        <v>1325</v>
       </c>
       <c r="B59" t="s">
-        <v>1300</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>1301</v>
+        <v>1327</v>
       </c>
       <c r="B60" t="s">
-        <v>1302</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>1303</v>
+      <c r="A61" s="6" t="s">
+        <v>1328</v>
       </c>
       <c r="B61" t="s">
-        <v>1304</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>1305</v>
+        <v>1331</v>
       </c>
       <c r="B62" t="s">
-        <v>1282</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>1306</v>
+      <c r="A63" s="6" t="s">
+        <v>1333</v>
       </c>
       <c r="B63" t="s">
-        <v>1307</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>1309</v>
+      <c r="A64" s="2" t="s">
+        <v>1335</v>
       </c>
       <c r="B64" t="s">
-        <v>1310</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
-        <v>1312</v>
+      <c r="A65" s="2" t="s">
+        <v>1337</v>
       </c>
       <c r="B65" t="s">
-        <v>1313</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1315</v>
+      <c r="A66" s="9" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>1316</v>
+        <v>1340</v>
       </c>
       <c r="B67" t="s">
-        <v>1317</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>1318</v>
+        <v>1343</v>
       </c>
       <c r="B68" t="s">
-        <v>1319</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>1320</v>
+        <v>1347</v>
       </c>
       <c r="B69" t="s">
-        <v>1274</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
-        <v>1321</v>
+      <c r="A70" s="6" t="s">
+        <v>1349</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1323</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>1324</v>
+        <v>1354</v>
       </c>
       <c r="B72" t="s">
-        <v>1276</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>1325</v>
+      <c r="A73" s="2" t="s">
+        <v>822</v>
       </c>
       <c r="B73" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
         <v>1330</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B93" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
-        <v>1339</v>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1" display="https://www.econstor.eu/handle/10419/176726" xr:uid="{D289EACF-3DE1-704E-8C54-D6DB02CEF5BC}"/>
+    <hyperlink ref="B15" r:id="rId1" display="https://www.econstor.eu/handle/10419/176726" xr:uid="{D289EACF-3DE1-704E-8C54-D6DB02CEF5BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E16B73-4CDD-9143-97FA-64E526755B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F06019-3943-FF4C-8965-ABD311FF329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
     <sheet name="Selection" sheetId="2" r:id="rId2"/>
+    <sheet name="Venue analysis" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="1346">
   <si>
     <t>A methodology for identifying breakthrough topics using structural entropy</t>
   </si>
@@ -3741,12 +3742,6 @@
     <t>COLING</t>
   </si>
   <si>
-    <t xml:space="preserve">What Do Websites Say about Internet of Things Challenges? A Text Mining Approach </t>
-  </si>
-  <si>
-    <t>Science &amp; Technology Libraries</t>
-  </si>
-  <si>
     <t xml:space="preserve">Neural Topic Modeling with Cycle-Consistent Adversarial Training </t>
   </si>
   <si>
@@ -3786,15 +3781,6 @@
     <t>Journal of the Association for Information Science and Technology</t>
   </si>
   <si>
-    <t xml:space="preserve">Extractive and Abstractive Sentence Labelling of Sentiment-bearing Topics </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Bayesian Topic Model for Human-Evaluated Interpretability </t>
-  </si>
-  <si>
-    <t>Conference on Language Resources and Evaluation (LREC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exploring the Factors Associated with Mental Health Attitude in China: A Structural Topic Modeling Approach </t>
   </si>
   <si>
@@ -3810,9 +3796,6 @@
     <t xml:space="preserve">Journal of Big Data </t>
   </si>
   <si>
-    <t xml:space="preserve">Hierarchical Interpretation of Neural Text Classification </t>
-  </si>
-  <si>
     <t xml:space="preserve">Understanding Airline Passengers during Covid-19 Outbreak to Improve Service Quality: Topic Modeling Approach to Complaints with Latent Dirichlet Allocation Algorithm </t>
   </si>
   <si>
@@ -3837,12 +3820,6 @@
     <t xml:space="preserve">Journal of Travel &amp; Tourism Marketing </t>
   </si>
   <si>
-    <t>Recent trends of green human resource management: Text mining and network analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environmental Science and Pollution Research </t>
-  </si>
-  <si>
     <t>What we talk about when we talk about EEMs: using text mining and topic modeling to understand building energy efficiency measures (1836-RP)</t>
   </si>
   <si>
@@ -3870,9 +3847,6 @@
     <t xml:space="preserve">Cognitive Computation </t>
   </si>
   <si>
-    <t>ssss 0953732520211876221</t>
-  </si>
-  <si>
     <t>Scientometrics volume </t>
   </si>
   <si>
@@ -3900,33 +3874,12 @@
     <t>International Journal of Hospitality Management</t>
   </si>
   <si>
-    <t xml:space="preserve">TaxoCom: Topic Taxonomy Completion with Hierarchical Discovery of Novel Topic Clusters </t>
-  </si>
-  <si>
-    <t>The Web Conference (WWW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Performance of Topic Evolution Based on a Feature Maximization Measurement for the Linguistics Domain </t>
-  </si>
-  <si>
-    <t>Axioms</t>
-  </si>
-  <si>
     <t xml:space="preserve">A Computational Analysis of News Media Bias: A South African Case Study </t>
   </si>
   <si>
     <t>South African Institute of Computer Scientists and Information Technologists (SAICSIT)</t>
   </si>
   <si>
-    <t>Discovering Interpretable Topics by Leveraging Common Sense Knowledge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-CAP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topic Discovery via Latent Space Clustering of Pretrained Language Model Representations </t>
-  </si>
-  <si>
     <t xml:space="preserve">Topic evolution, disruption and resilience in early COVID‐19 research </t>
   </si>
   <si>
@@ -4038,12 +3991,6 @@
     <t xml:space="preserve">Government Information Quarterly </t>
   </si>
   <si>
-    <t xml:space="preserve">Hierarchical neural topic modeling with manifold 2 regularization </t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Wide Web </t>
-  </si>
-  <si>
     <t xml:space="preserve">Exploring the nexus between food and veg*n lifestyle via text mining-based online community analytics </t>
   </si>
   <si>
@@ -4086,9 +4033,6 @@
     <t>Technology in Society</t>
   </si>
   <si>
-    <t xml:space="preserve">HyperMiner: Topic Taxonomy Mining with Hyperbolic Embedding </t>
-  </si>
-  <si>
     <t>A topic-sensitive trust evaluation approach for users in online communities (Knowledge-based systems)</t>
   </si>
   <si>
@@ -4098,9 +4042,6 @@
     <t xml:space="preserve">Word2vec-based latent semantic analysis (W2V-LSA) for topic modeling: A study on blockchain technology trend analysis </t>
   </si>
   <si>
-    <t xml:space="preserve">Text Classification Using Label Names Only: A Language Model Self-Training Approach </t>
-  </si>
-  <si>
     <t xml:space="preserve">Understanding music streaming services via text mining of online customer reviews </t>
   </si>
   <si>
@@ -4111,12 +4052,39 @@
   </si>
   <si>
     <t xml:space="preserve">International Journal of Sport and Exercise Psychology </t>
+  </si>
+  <si>
+    <t>Asia-Pacific Chapter of the Association for Computational Linguistics and the 12th International Joint Conference on Natural Language Processing (AACL-IJCNLP)</t>
+  </si>
+  <si>
+    <t>Jornals</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>AVG SJR 17-21</t>
+  </si>
+  <si>
+    <t>Conferences</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>GGS Rating</t>
+  </si>
+  <si>
+    <t>Sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4199,7 +4167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4211,6 +4179,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14021,8 +13990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A500ACC7-7708-ED45-B02F-B4A7D5A5733F}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14088,7 +14057,7 @@
         <v>1193</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -14099,11 +14068,11 @@
         <v>1209</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1311</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="B7" t="s">
@@ -14111,14 +14080,14 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>1212</v>
       </c>
       <c r="B8" t="s">
         <v>1213</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -14138,7 +14107,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>1221</v>
       </c>
       <c r="B11" t="s">
@@ -14146,7 +14115,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>1223</v>
       </c>
       <c r="B12" t="s">
@@ -14162,11 +14131,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1235</v>
+      <c r="A14" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1292</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>1228</v>
@@ -14176,24 +14145,24 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B15" t="s">
         <v>1238</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B16" t="s">
         <v>1239</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1083</v>
+        <v>1240</v>
       </c>
       <c r="B17" t="s">
         <v>1241</v>
@@ -14204,15 +14173,15 @@
         <v>1242</v>
       </c>
       <c r="B18" t="s">
-        <v>1243</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B19" t="s">
         <v>1244</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -14225,132 +14194,138 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B21" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>1249</v>
+      <c r="A22" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>1250</v>
+      <c r="A23" s="2" t="s">
+        <v>1252</v>
       </c>
       <c r="B23" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B24" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B25" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>1257</v>
+      <c r="A26" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="B27" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B28" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="B29" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="B30" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>1266</v>
+      <c r="A31" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B32" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="B33" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B34" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B35" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>28</v>
+      <c r="A36" s="2" t="s">
+        <v>1278</v>
       </c>
       <c r="B36" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B37" t="s">
-        <v>1280</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -14378,7 +14353,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="2" t="s">
         <v>1287</v>
       </c>
       <c r="B41" t="s">
@@ -14386,250 +14361,158 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="2" t="s">
         <v>1289</v>
       </c>
       <c r="B42" t="s">
-        <v>1290</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B43" t="s">
         <v>1291</v>
       </c>
-      <c r="B43" t="s">
-        <v>1292</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>1293</v>
+      <c r="A44" s="2" t="s">
+        <v>1300</v>
       </c>
       <c r="B44" t="s">
-        <v>1294</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>1295</v>
+      <c r="A45" s="2" t="s">
+        <v>1302</v>
       </c>
       <c r="B45" t="s">
-        <v>1288</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>1296</v>
+        <v>1304</v>
       </c>
       <c r="B46" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>1277</v>
-      </c>
+        <v>1266</v>
+      </c>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1297</v>
+        <v>1306</v>
       </c>
       <c r="B47" t="s">
-        <v>1298</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1299</v>
+        <v>1308</v>
       </c>
       <c r="B48" t="s">
-        <v>1300</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1301</v>
+        <v>1309</v>
       </c>
       <c r="B49" t="s">
-        <v>1302</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1303</v>
+        <v>1311</v>
       </c>
       <c r="B50" t="s">
-        <v>1304</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1305</v>
+        <v>1312</v>
       </c>
       <c r="B51" t="s">
-        <v>1282</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1306</v>
+        <v>1315</v>
       </c>
       <c r="B52" t="s">
-        <v>1307</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B53" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B54" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="B55" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
-        <v>1321</v>
+      <c r="A56" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
-        <v>1322</v>
+      <c r="A57" s="2" t="s">
+        <v>1329</v>
       </c>
       <c r="B57" t="s">
-        <v>1323</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>1324</v>
+        <v>1334</v>
       </c>
       <c r="B58" t="s">
-        <v>1276</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>1325</v>
+      <c r="A59" s="2" t="s">
+        <v>822</v>
       </c>
       <c r="B59" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
         <v>1337</v>
       </c>
-      <c r="B65" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="9" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1282</v>
-      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1344</v>
+      <c r="A68" s="9" t="s">
+        <v>1305</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1357</v>
+      <c r="A69" s="9" t="s">
+        <v>1321</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -14714,89 +14597,521 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B89" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>1309</v>
+        <v>1293</v>
       </c>
       <c r="B90" t="s">
-        <v>1310</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>1312</v>
+        <v>1296</v>
       </c>
       <c r="B91" t="s">
-        <v>1313</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>1314</v>
+        <v>1298</v>
       </c>
       <c r="B92" t="s">
-        <v>1315</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>1330</v>
+        <v>1314</v>
       </c>
       <c r="B93" t="s">
-        <v>1315</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>1341</v>
+        <v>1323</v>
       </c>
       <c r="B94" t="s">
-        <v>1342</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>1345</v>
+        <v>1327</v>
       </c>
       <c r="B95" t="s">
-        <v>1346</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>1350</v>
+        <v>1331</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>1351</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>1352</v>
+        <v>1333</v>
       </c>
       <c r="B97" t="s">
-        <v>1315</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>1356</v>
+        <v>1336</v>
       </c>
       <c r="B98" t="s">
-        <v>1342</v>
+        <v>1324</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" display="https://www.econstor.eu/handle/10419/176726" xr:uid="{D289EACF-3DE1-704E-8C54-D6DB02CEF5BC}"/>
+    <hyperlink ref="B14" r:id="rId1" display="https://www.econstor.eu/handle/10419/176726" xr:uid="{D289EACF-3DE1-704E-8C54-D6DB02CEF5BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB2728D-8837-9F42-8814-CC53BBA54B14}">
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="131" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>2.3948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1.1910000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2.3039999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1.841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0.68899999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>1337</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>2017</v>
+      </c>
+      <c r="C39">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>2018</v>
+      </c>
+      <c r="C40">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>2019</v>
+      </c>
+      <c r="C41">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>2020</v>
+      </c>
+      <c r="C42">
+        <v>0.58699999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>2021</v>
+      </c>
+      <c r="C43">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="11">
+        <f>AVERAGE(C39:C43)</f>
+        <v>0.68920000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G32">
+    <sortCondition ref="F2:F32"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A29" r:id="rId1" display="https://www.econstor.eu/handle/10419/176726" xr:uid="{DF1A005E-002A-D740-A0A6-02032AE757AB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F06019-3943-FF4C-8965-ABD311FF329C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FB3F82-51E6-0440-B445-1CCB0AD9CF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="3" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
     <sheet name="Selection" sheetId="2" r:id="rId2"/>
     <sheet name="Venue analysis" sheetId="3" r:id="rId3"/>
+    <sheet name="Selection re-organised" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1365">
   <si>
     <t>A methodology for identifying breakthrough topics using structural entropy</t>
   </si>
@@ -4075,7 +4076,64 @@
     <t>GGS Rating</t>
   </si>
   <si>
-    <t>Sum</t>
+    <t>UNRANKED</t>
+  </si>
+  <si>
+    <t>Paper count</t>
+  </si>
+  <si>
+    <t>Annual Workshop of the Australasian Language Technology Association (ALTA)</t>
+  </si>
+  <si>
+    <t>Transportation Research, Part D: Transport and Environment</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Australasian B</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>Work in Progress</t>
+  </si>
+  <si>
+    <t>Conference of the South African Institute of Computer Scientists and Information Technologists (SAICSIT)</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>UNR</t>
+  </si>
+  <si>
+    <t>B/A-</t>
+  </si>
+  <si>
+    <t>C/A-</t>
+  </si>
+  <si>
+    <t>A. B</t>
+  </si>
+  <si>
+    <t>Conference</t>
   </si>
 </sst>
 </file>
@@ -4083,7 +4141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -4110,7 +4168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4149,7 +4207,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBEA84"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCB379"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8696B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4167,7 +4255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4177,9 +4265,38 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4187,6 +4304,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA9D08D"/>
+      <color rgb="FFFBEA84"/>
+      <color rgb="FFF8696B"/>
+      <color rgb="FFFCB379"/>
+      <color rgb="FFE2E384"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -13991,7 +14117,7 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14011,7 +14137,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="15" t="s">
         <v>1186</v>
       </c>
       <c r="B2" t="s">
@@ -14022,7 +14148,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="15" t="s">
         <v>1188</v>
       </c>
       <c r="B3" t="s">
@@ -14033,7 +14159,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="15" t="s">
         <v>1203</v>
       </c>
       <c r="B4" t="s">
@@ -14047,7 +14173,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="15" t="s">
         <v>1206</v>
       </c>
       <c r="B5" t="s">
@@ -14061,7 +14187,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="15" t="s">
         <v>1208</v>
       </c>
       <c r="B6" t="s">
@@ -14132,10 +14258,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>1292</v>
+        <v>1237</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1238</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>1228</v>
@@ -14146,373 +14272,373 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1237</v>
+        <v>1083</v>
       </c>
       <c r="B15" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1083</v>
+        <v>1240</v>
       </c>
       <c r="B16" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>1240</v>
+      <c r="A17" s="15" t="s">
+        <v>1242</v>
       </c>
       <c r="B17" t="s">
-        <v>1241</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B18" t="s">
-        <v>1189</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="B19" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="B20" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B21" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="B22" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B23" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="B24" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B25" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="B26" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B27" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="B28" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="B29" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1267</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>1270</v>
       </c>
       <c r="B31" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="B32" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="B33" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="B34" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="B35" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="B36" t="s">
-        <v>1279</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B37" t="s">
-        <v>1266</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="B38" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="B39" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="B40" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="B41" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B42" t="s">
-        <v>1273</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>1290</v>
+        <v>1300</v>
       </c>
       <c r="B43" t="s">
-        <v>1291</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="B44" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="B45" t="s">
-        <v>1303</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B46" t="s">
-        <v>1266</v>
+        <v>1307</v>
       </c>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="B47" t="s">
-        <v>1307</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B48" t="s">
-        <v>1268</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B49" t="s">
-        <v>1310</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B50" t="s">
-        <v>1266</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="B51" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B52" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="B53" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="B54" t="s">
-        <v>1320</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="B55" t="s">
-        <v>1273</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="B56" t="s">
-        <v>1326</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1329</v>
+        <v>1334</v>
       </c>
       <c r="B57" t="s">
-        <v>1330</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>1334</v>
+        <v>822</v>
       </c>
       <c r="B58" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="B59" t="s">
         <v>1337</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="10" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="10" t="s">
         <v>1321</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -14655,7 +14781,7 @@
       <c r="A96" s="4" t="s">
         <v>1331</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" t="s">
         <v>1332</v>
       </c>
     </row>
@@ -14677,7 +14803,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" display="https://www.econstor.eu/handle/10419/176726" xr:uid="{D289EACF-3DE1-704E-8C54-D6DB02CEF5BC}"/>
+    <hyperlink ref="B70" r:id="rId1" display="https://www.econstor.eu/handle/10419/176726" xr:uid="{D289EACF-3DE1-704E-8C54-D6DB02CEF5BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14686,432 +14812,1383 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB2728D-8837-9F42-8814-CC53BBA54B14}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="131" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="135.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1342</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>1349</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2.94</v>
+      </c>
+      <c r="E3">
+        <f>E2+C3</f>
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>1349</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K3">
+        <f>K2+H3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="11" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2.3948</v>
+      </c>
+      <c r="E4">
+        <f>E3+C4</f>
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K11" si="0">K3+H4</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E39" si="1">E4+C5</f>
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>1351</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="11" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C6" s="14">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2.2149999999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1.974</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1284</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1.841</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="11" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1.645</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1.61</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="11" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1.518</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1.363</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="11" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1.236</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="11" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C15" s="12">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1.198</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="11" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C16" s="14">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="11" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="11" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1.155</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="11" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C20" s="14">
+        <v>5</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1.075</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="11" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="11" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.748</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="11" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="11" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.69</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
+      <c r="B29" s="11" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C29" s="14">
+        <v>2</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
+      <c r="B30" s="11" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C30" s="12">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+      <c r="B31" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C31" s="14">
+        <v>3</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="11" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C32" s="12">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="11" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C33" s="12">
+        <v>1</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="19"/>
+      <c r="B34" s="11" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.497</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="11" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="11" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="25" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="11" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C39" s="12">
+        <v>1</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C44" s="9"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D36">
+    <sortCondition descending="1" ref="D2:D36"/>
+  </sortState>
+  <conditionalFormatting sqref="D2:D30">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D6738B-0240-924F-9711-81B5B1E4AC9C}">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="144.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="135.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>1340</v>
+        <v>1184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1344</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1341</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="24" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="24" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="24" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="24" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="24" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="24" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="24" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="24" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="24" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="24" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="24" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="24" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="24" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="24" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="24" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="24" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="24" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
+      <c r="B23" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
+      <c r="B24" s="24" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
+      <c r="B25" s="24" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
+      <c r="B26" s="24" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="24" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
+      <c r="B28" s="24" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
+      <c r="B29" s="24" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="24" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="24" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="24" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="26" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="26" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37" s="24" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="24" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="24" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
+      <c r="B40" s="24" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="19"/>
+      <c r="B41" s="24" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="19"/>
+      <c r="B42" s="24" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="19"/>
+      <c r="B43" s="24" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="19"/>
+      <c r="B44" s="24" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="19"/>
+      <c r="B45" s="24" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="25" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
+      <c r="B47" s="24" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="25"/>
+      <c r="B48" s="24" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="28" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C53" t="s">
         <v>1338</v>
       </c>
-      <c r="F2" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11">
-        <v>2.3948</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1268</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>1.1910000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0.497</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="22" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="22"/>
+      <c r="B55" s="24" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C55" t="s">
         <v>1239</v>
       </c>
-      <c r="F5" t="s">
-        <v>1301</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1187</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1220</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2.3039999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F9" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0.95499999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
-        <v>1316</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1.841</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>0.68899999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
-        <v>1241</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
-        <v>1263</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F14" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F15" t="s">
-        <v>1277</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
-        <v>1337</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1251</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1282</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>1335</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1271</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1246</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1259</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1238</v>
-      </c>
-      <c r="G25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>1320</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1266</v>
-      </c>
-      <c r="G28" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>1292</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1273</v>
-      </c>
-      <c r="G29" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F30" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F31" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
-        <v>1253</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>2017</v>
-      </c>
-      <c r="C39">
-        <v>0.54800000000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>2018</v>
-      </c>
-      <c r="C40">
-        <v>0.60899999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <v>2019</v>
-      </c>
-      <c r="C41">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42">
-        <v>2020</v>
-      </c>
-      <c r="C42">
-        <v>0.58699999999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>2021</v>
-      </c>
-      <c r="C43">
-        <v>0.92700000000000005</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="11">
-        <f>AVERAGE(C39:C43)</f>
-        <v>0.68920000000000003</v>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="22" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G32">
-    <sortCondition ref="F2:F32"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" display="https://www.econstor.eu/handle/10419/176726" xr:uid="{DF1A005E-002A-D740-A0A6-02032AE757AB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FB3F82-51E6-0440-B445-1CCB0AD9CF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3173EDC5-E846-BC44-AA45-5D4184E84E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="3" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
     <sheet name="Selection" sheetId="2" r:id="rId2"/>
     <sheet name="Venue analysis" sheetId="3" r:id="rId3"/>
     <sheet name="Selection re-organised" sheetId="4" r:id="rId4"/>
+    <sheet name="Final Selection" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="1379">
   <si>
     <t>A methodology for identifying breakthrough topics using structural entropy</t>
   </si>
@@ -4134,6 +4135,48 @@
   </si>
   <si>
     <t>Conference</t>
+  </si>
+  <si>
+    <t>AACL-IJCNLP</t>
+  </si>
+  <si>
+    <t>IJCNN</t>
+  </si>
+  <si>
+    <t>ICIS</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>HNICEM</t>
+  </si>
+  <si>
+    <t>SAICSIT</t>
+  </si>
+  <si>
+    <t>ITHET</t>
+  </si>
+  <si>
+    <t>MLN</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>ASEW</t>
+  </si>
+  <si>
+    <t>Journal of Computer Information Systems: Intellectual and Conceptual Structure</t>
+  </si>
+  <si>
+    <t>COLLNET Journal of Scientometrics and Information Management</t>
+  </si>
+  <si>
+    <t>Journal of Computer Information System</t>
+  </si>
+  <si>
+    <t>Journal of Business Analytics</t>
   </si>
 </sst>
 </file>
@@ -4143,7 +4186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4163,6 +4206,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4255,7 +4305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4267,10 +4317,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4288,15 +4334,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4623,7 +4669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B38566-BA29-3747-A27F-4C7017B6EE0C}">
   <dimension ref="A1:B1184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A261" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -14117,7 +14163,7 @@
   <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14137,7 +14183,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>1186</v>
       </c>
       <c r="B2" t="s">
@@ -14148,7 +14194,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>1188</v>
       </c>
       <c r="B3" t="s">
@@ -14159,7 +14205,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="11" t="s">
         <v>1203</v>
       </c>
       <c r="B4" t="s">
@@ -14173,7 +14219,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="11" t="s">
         <v>1206</v>
       </c>
       <c r="B5" t="s">
@@ -14187,7 +14233,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>1208</v>
       </c>
       <c r="B6" t="s">
@@ -14287,7 +14333,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="11" t="s">
         <v>1242</v>
       </c>
       <c r="B17" t="s">
@@ -14621,6 +14667,30 @@
       </c>
       <c r="B58" t="s">
         <v>1337</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1378</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -14812,10 +14882,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB2728D-8837-9F42-8814-CC53BBA54B14}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14861,16 +14931,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>1352</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" t="s">
         <v>1213</v>
       </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>3.1459999999999999</v>
       </c>
       <c r="E2">
@@ -14882,10 +14952,10 @@
       <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="21" t="s">
         <v>1349</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="21" t="s">
         <v>1356</v>
       </c>
       <c r="K2">
@@ -14894,13 +14964,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" t="s">
         <v>1301</v>
       </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>2.94</v>
       </c>
       <c r="E3">
@@ -14913,10 +14983,10 @@
       <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="21" t="s">
         <v>1349</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="21" t="s">
         <v>1356</v>
       </c>
       <c r="K3">
@@ -14926,13 +14996,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" t="s">
         <v>1216</v>
       </c>
-      <c r="C4" s="12">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
         <v>2.3948</v>
       </c>
       <c r="E4">
@@ -14945,10 +15015,10 @@
       <c r="H4" s="4">
         <v>1</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="13" t="s">
         <v>1350</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="21" t="s">
         <v>1356</v>
       </c>
       <c r="K4">
@@ -14958,17 +15028,17 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" t="s">
         <v>1220</v>
       </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>2.3039999999999998</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E39" si="1">E4+C5</f>
+        <f t="shared" ref="E5:E42" si="1">E4+C5</f>
         <v>4</v>
       </c>
       <c r="G5" t="s">
@@ -14977,10 +15047,10 @@
       <c r="H5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="13" t="s">
         <v>1351</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="19" t="s">
         <v>1357</v>
       </c>
       <c r="K5">
@@ -14990,13 +15060,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s">
         <v>1277</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6">
         <v>2.2149999999999999</v>
       </c>
       <c r="E6">
@@ -15012,7 +15082,7 @@
       <c r="I6" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="19" t="s">
         <v>1357</v>
       </c>
       <c r="K6">
@@ -15022,13 +15092,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" t="s">
         <v>1263</v>
       </c>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>1.974</v>
       </c>
       <c r="E7">
@@ -15044,7 +15114,7 @@
       <c r="I7" s="4" t="s">
         <v>1345</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="19" t="s">
         <v>1357</v>
       </c>
       <c r="K7">
@@ -15054,13 +15124,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" t="s">
         <v>1316</v>
       </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>1.841</v>
       </c>
       <c r="E8">
@@ -15086,13 +15156,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" t="s">
         <v>1271</v>
       </c>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>1.645</v>
       </c>
       <c r="E9">
@@ -15118,13 +15188,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" t="s">
         <v>1348</v>
       </c>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>1.61</v>
       </c>
       <c r="E10">
@@ -15149,16 +15219,14 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
         <v>1259</v>
       </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>1.5549999999999999</v>
       </c>
       <c r="E11">
@@ -15183,14 +15251,14 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
         <v>1307</v>
       </c>
-      <c r="C12" s="12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>1.518</v>
       </c>
       <c r="E12">
@@ -15199,14 +15267,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
         <v>1251</v>
       </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11">
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>1.363</v>
       </c>
       <c r="E13">
@@ -15215,14 +15283,16 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="18" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B14" t="s">
         <v>1249</v>
       </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>1.236</v>
       </c>
       <c r="E14">
@@ -15231,14 +15301,14 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" t="s">
         <v>1209</v>
       </c>
-      <c r="C15" s="12">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>1.198</v>
       </c>
       <c r="E15">
@@ -15247,14 +15317,14 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" t="s">
         <v>1268</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16">
         <v>1.1910000000000001</v>
       </c>
       <c r="E16">
@@ -15263,14 +15333,14 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" t="s">
         <v>1318</v>
       </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11">
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>1.19</v>
       </c>
       <c r="E17">
@@ -15279,14 +15349,14 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" t="s">
         <v>1246</v>
       </c>
-      <c r="C18" s="12">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>1.155</v>
       </c>
       <c r="E18">
@@ -15295,14 +15365,14 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" t="s">
         <v>1335</v>
       </c>
-      <c r="C19" s="12">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>1.1359999999999999</v>
       </c>
       <c r="E19">
@@ -15311,16 +15381,14 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" t="s">
         <v>1266</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="2">
         <v>5</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20">
         <v>1.075</v>
       </c>
       <c r="E20">
@@ -15329,14 +15397,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="17" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B21" t="s">
         <v>1275</v>
       </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>0.95499999999999996</v>
       </c>
       <c r="E21">
@@ -15345,14 +15415,14 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="14"/>
+      <c r="B22" t="s">
         <v>1326</v>
       </c>
-      <c r="C22" s="12">
-        <v>1</v>
-      </c>
-      <c r="D22" s="11">
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>0.80300000000000005</v>
       </c>
       <c r="E22">
@@ -15361,14 +15431,14 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" t="s">
         <v>1255</v>
       </c>
-      <c r="C23" s="12">
-        <v>1</v>
-      </c>
-      <c r="D23" s="11">
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>0.77100000000000002</v>
       </c>
       <c r="E23">
@@ -15377,14 +15447,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" t="s">
         <v>1288</v>
       </c>
-      <c r="C24" s="12">
-        <v>1</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>0.748</v>
       </c>
       <c r="E24">
@@ -15393,14 +15463,14 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" t="s">
         <v>1238</v>
       </c>
-      <c r="C25" s="12">
-        <v>1</v>
-      </c>
-      <c r="D25" s="11">
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>0.74199999999999999</v>
       </c>
       <c r="E25">
@@ -15409,14 +15479,14 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" t="s">
         <v>1337</v>
       </c>
-      <c r="C26" s="12">
-        <v>1</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>0.72199999999999998</v>
       </c>
       <c r="E26">
@@ -15425,14 +15495,14 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" t="s">
         <v>1222</v>
       </c>
-      <c r="C27" s="12">
-        <v>1</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>0.70699999999999996</v>
       </c>
       <c r="E27">
@@ -15441,16 +15511,14 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" t="s">
         <v>1291</v>
       </c>
-      <c r="C28" s="12">
-        <v>1</v>
-      </c>
-      <c r="D28" s="11">
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>0.69</v>
       </c>
       <c r="E28">
@@ -15459,14 +15527,14 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" t="s">
         <v>1189</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="2">
         <v>2</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29">
         <v>0.68899999999999995</v>
       </c>
       <c r="E29">
@@ -15475,14 +15543,14 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" t="s">
         <v>1330</v>
       </c>
-      <c r="C30" s="12">
-        <v>1</v>
-      </c>
-      <c r="D30" s="11">
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30">
         <v>0.67600000000000005</v>
       </c>
       <c r="E30">
@@ -15491,31 +15559,33 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="11" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C31" s="14">
-        <v>3</v>
-      </c>
-      <c r="D31" s="11">
-        <v>0.60199999999999998</v>
+      <c r="A31" s="14"/>
+      <c r="B31" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.65600000000000003</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="11" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C32" s="12">
-        <v>1</v>
-      </c>
-      <c r="D32" s="11">
-        <v>0.57299999999999995</v>
+      <c r="A32" s="16" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0.60199999999999998</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
@@ -15523,15 +15593,15 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="11" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C33" s="12">
-        <v>1</v>
-      </c>
-      <c r="D33" s="11">
-        <v>0.53900000000000003</v>
+      <c r="A33" s="15"/>
+      <c r="B33" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.57299999999999995</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
@@ -15539,15 +15609,15 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="11" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C34" s="12">
-        <v>1</v>
-      </c>
-      <c r="D34" s="11">
-        <v>0.497</v>
+      <c r="A34" s="15"/>
+      <c r="B34" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.53900000000000003</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
@@ -15555,15 +15625,15 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="11" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C35" s="12">
-        <v>1</v>
-      </c>
-      <c r="D35" s="11">
-        <v>0.375</v>
+      <c r="A35" s="15"/>
+      <c r="B35" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.497</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
@@ -15571,15 +15641,15 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="11" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C36" s="12">
-        <v>1</v>
-      </c>
-      <c r="D36" s="11">
-        <v>0.35399999999999998</v>
+      <c r="A36" s="15"/>
+      <c r="B36" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.434</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
@@ -15587,17 +15657,15 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C37" s="12">
-        <v>1</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>1345</v>
+      <c r="A37" s="15"/>
+      <c r="B37" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0.375</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
@@ -15605,15 +15673,15 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="11" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C38" s="12">
-        <v>1</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>1345</v>
+      <c r="A38" s="15"/>
+      <c r="B38" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.35399999999999998</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
@@ -15621,14 +15689,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="11" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C39" s="12">
-        <v>1</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="A39" s="20" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>1345</v>
       </c>
       <c r="E39">
@@ -15637,26 +15707,62 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="8"/>
+      <c r="A40" s="4"/>
+      <c r="B40" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C41" s="8"/>
+      <c r="A41" s="4"/>
+      <c r="B41" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C42" s="8"/>
+      <c r="A42" s="4"/>
+      <c r="B42" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C44" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D36">
     <sortCondition descending="1" ref="D2:D36"/>
   </sortState>
   <conditionalFormatting sqref="D2:D30">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15667,7 +15773,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D36">
+  <conditionalFormatting sqref="D2:D30 D32:D35 D37:D38">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D38">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -15680,15 +15798,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D6738B-0240-924F-9711-81B5B1E4AC9C}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15706,10 +15825,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>1352</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" t="s">
         <v>1212</v>
       </c>
       <c r="C2" t="s">
@@ -15718,7 +15837,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="24" t="s">
+      <c r="B3" t="s">
         <v>1300</v>
       </c>
       <c r="C3" t="s">
@@ -15727,7 +15846,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" t="s">
         <v>1215</v>
       </c>
       <c r="C4" t="s">
@@ -15736,7 +15855,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" t="s">
         <v>1219</v>
       </c>
       <c r="C5" t="s">
@@ -15745,7 +15864,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" t="s">
         <v>1276</v>
       </c>
       <c r="C6" t="s">
@@ -15754,7 +15873,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" t="s">
         <v>1302</v>
       </c>
       <c r="C7" t="s">
@@ -15763,7 +15882,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" t="s">
         <v>1262</v>
       </c>
       <c r="C8" t="s">
@@ -15772,7 +15891,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="B9" s="24" t="s">
+      <c r="B9" t="s">
         <v>1315</v>
       </c>
       <c r="C9" t="s">
@@ -15781,7 +15900,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" t="s">
         <v>1270</v>
       </c>
       <c r="C10" t="s">
@@ -15790,7 +15909,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" t="s">
         <v>1319</v>
       </c>
       <c r="C11" t="s">
@@ -15798,10 +15917,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
         <v>1258</v>
       </c>
       <c r="C12" t="s">
@@ -15809,8 +15926,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
         <v>1306</v>
       </c>
       <c r="C13" t="s">
@@ -15818,8 +15935,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
         <v>1250</v>
       </c>
       <c r="C14" t="s">
@@ -15827,8 +15944,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="18" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B15" t="s">
         <v>1248</v>
       </c>
       <c r="C15" t="s">
@@ -15836,8 +15955,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="1" t="s">
         <v>1208</v>
       </c>
       <c r="C16" t="s">
@@ -15845,8 +15964,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" t="s">
         <v>1267</v>
       </c>
       <c r="C17" t="s">
@@ -15854,8 +15973,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" t="s">
         <v>1308</v>
       </c>
       <c r="C18" t="s">
@@ -15863,8 +15982,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" t="s">
         <v>1317</v>
       </c>
       <c r="C19" t="s">
@@ -15872,8 +15991,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" t="s">
         <v>1245</v>
       </c>
       <c r="C20" t="s">
@@ -15881,8 +16000,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
         <v>1334</v>
       </c>
       <c r="C21" t="s">
@@ -15890,10 +16009,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s">
         <v>1265</v>
       </c>
       <c r="C22" t="s">
@@ -15901,8 +16018,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" t="s">
         <v>28</v>
       </c>
       <c r="C23" t="s">
@@ -15910,8 +16027,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" t="s">
         <v>1280</v>
       </c>
       <c r="C24" t="s">
@@ -15919,8 +16036,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" t="s">
         <v>1304</v>
       </c>
       <c r="C25" t="s">
@@ -15928,8 +16045,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" t="s">
         <v>1311</v>
       </c>
       <c r="C26" t="s">
@@ -15937,8 +16054,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="17" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B27" t="s">
         <v>1274</v>
       </c>
       <c r="C27" t="s">
@@ -15946,8 +16065,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="14"/>
+      <c r="B28" t="s">
         <v>1325</v>
       </c>
       <c r="C28" t="s">
@@ -15955,8 +16074,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" t="s">
         <v>1254</v>
       </c>
       <c r="C29" t="s">
@@ -15964,8 +16083,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" t="s">
         <v>1287</v>
       </c>
       <c r="C30" t="s">
@@ -15973,8 +16092,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="14"/>
+      <c r="B31" t="s">
         <v>1237</v>
       </c>
       <c r="C31" t="s">
@@ -15982,8 +16101,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="24" t="s">
+      <c r="A32" s="14"/>
+      <c r="B32" t="s">
         <v>822</v>
       </c>
       <c r="C32" t="s">
@@ -15991,8 +16110,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" t="s">
         <v>1221</v>
       </c>
       <c r="C33" t="s">
@@ -16000,10 +16119,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B34" s="24" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" t="s">
         <v>1290</v>
       </c>
       <c r="C34" t="s">
@@ -16011,8 +16128,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="26" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="1" t="s">
         <v>1188</v>
       </c>
       <c r="C35" t="s">
@@ -16020,8 +16137,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="26" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="1" t="s">
         <v>1242</v>
       </c>
       <c r="C36" t="s">
@@ -16029,8 +16146,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="24" t="s">
+      <c r="A37" s="14"/>
+      <c r="B37" t="s">
         <v>1329</v>
       </c>
       <c r="C37" t="s">
@@ -16038,153 +16155,555 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="24" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B39" t="s">
         <v>1272</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="24" t="s">
-        <v>1289</v>
       </c>
       <c r="C39" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="24" t="s">
-        <v>1322</v>
+      <c r="A40" s="15"/>
+      <c r="B40" t="s">
+        <v>1289</v>
       </c>
       <c r="C40" t="s">
         <v>1273</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="15"/>
+      <c r="B41" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="15"/>
+      <c r="B42" t="s">
         <v>1252</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="24" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="15"/>
+      <c r="B43" t="s">
         <v>1260</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="24" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="15"/>
+      <c r="B44" t="s">
         <v>1243</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="24" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" t="s">
         <v>1256</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="24" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="15"/>
+      <c r="B47" t="s">
         <v>1240</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
         <v>1360</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B48" t="s">
         <v>1281</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="24" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
+      <c r="B49" t="s">
         <v>1312</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="24" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="20"/>
+      <c r="B50" t="s">
         <v>1223</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="20"/>
+      <c r="B51" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>1364</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="28" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C53" t="s">
-        <v>1338</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="22" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
         <v>1362</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B55" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676D9898-E99A-FC48-AC4C-E3DE90F2E82B}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="144.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="135.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="B28" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C31" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
-      <c r="B55" s="24" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" t="s">
         <v>1083</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C32" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="22" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
         <v>1363</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B33" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C33" t="s">
         <v>1347</v>
       </c>
     </row>

--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3173EDC5-E846-BC44-AA45-5D4184E84E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A166EAE-15A1-D446-BD96-5DC57FE60F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -4669,7 +4669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B38566-BA29-3747-A27F-4C7017B6EE0C}">
   <dimension ref="A1:B1184"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -16156,7 +16156,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
-      <c r="B38" s="24" t="s">
+      <c r="B38" t="s">
         <v>1375</v>
       </c>
       <c r="C38" t="s">
@@ -16221,7 +16221,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
-      <c r="B45" s="24" t="s">
+      <c r="B45" t="s">
         <v>234</v>
       </c>
       <c r="C45" t="s">
@@ -16277,7 +16277,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="20"/>
-      <c r="B51" s="24" t="s">
+      <c r="B51" t="s">
         <v>432</v>
       </c>
       <c r="C51" t="s">
@@ -16401,7 +16401,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16449,7 +16449,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" t="s">
+      <c r="B5" s="24" t="s">
         <v>1219</v>
       </c>
       <c r="C5" t="s">
@@ -16586,7 +16586,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
-      <c r="B20" t="s">
+      <c r="B20" s="24" t="s">
         <v>1245</v>
       </c>
       <c r="C20" t="s">

--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A166EAE-15A1-D446-BD96-5DC57FE60F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF190D2A-85ED-A94F-9211-A190588014DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="4" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="1379">
   <si>
     <t>A methodology for identifying breakthrough topics using structural entropy</t>
   </si>
@@ -3618,9 +3618,6 @@
     <t>Research &amp; Politics</t>
   </si>
   <si>
-    <t>Transfer learning for topic labeling: Analysis of the UK House of Commons speeches 1935–2014</t>
-  </si>
-  <si>
     <t>???</t>
   </si>
   <si>
@@ -4177,6 +4174,9 @@
   </si>
   <si>
     <t>Journal of Business Analytics</t>
+  </si>
+  <si>
+    <t>Research and Politics</t>
   </si>
 </sst>
 </file>
@@ -4305,11 +4305,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -4342,7 +4341,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4669,8 +4668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B38566-BA29-3747-A27F-4C7017B6EE0C}">
   <dimension ref="A1:B1184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A1155" workbookViewId="0">
+      <selection activeCell="A1189" sqref="A1189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14162,8 +14161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A500ACC7-7708-ED45-B02F-B4A7D5A5733F}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14183,137 +14182,137 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>1186</v>
       </c>
       <c r="B2" t="s">
         <v>1187</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>1205</v>
+      <c r="D2" s="4" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>1188</v>
       </c>
       <c r="B3" t="s">
         <v>1189</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>1214</v>
+      <c r="D3" s="4" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B4" t="s">
         <v>1203</v>
       </c>
-      <c r="B4" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E4" t="s">
         <v>1225</v>
       </c>
-      <c r="E4" t="s">
-        <v>1226</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B5" t="s">
         <v>1206</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>1207</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="B6" t="s">
         <v>1208</v>
       </c>
-      <c r="B6" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1295</v>
+      <c r="D6" s="4" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B7" t="s">
         <v>1210</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B8" t="s">
         <v>1212</v>
       </c>
-      <c r="B8" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1264</v>
+      <c r="D8" s="5" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B9" t="s">
         <v>1215</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B10" t="s">
         <v>1219</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B11" t="s">
         <v>1221</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B12" t="s">
         <v>1223</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B13" t="s">
         <v>1230</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B14" t="s">
         <v>1237</v>
       </c>
-      <c r="B14" t="s">
-        <v>1238</v>
-      </c>
       <c r="D14" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E14" t="s">
         <v>1228</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -14321,20 +14320,20 @@
         <v>1083</v>
       </c>
       <c r="B15" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B16" t="s">
         <v>1240</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>1241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>1242</v>
       </c>
       <c r="B17" t="s">
         <v>1189</v>
@@ -14342,98 +14341,98 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B18" t="s">
         <v>1243</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B19" t="s">
         <v>1245</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B20" t="s">
         <v>1248</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B21" t="s">
         <v>1250</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B22" t="s">
         <v>1252</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B23" t="s">
         <v>1254</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B24" t="s">
         <v>1256</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B25" t="s">
         <v>1258</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B26" t="s">
         <v>1260</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B27" t="s">
         <v>1262</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B28" t="s">
         <v>1265</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B29" t="s">
         <v>1267</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -14441,224 +14440,224 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B31" t="s">
         <v>1270</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B32" t="s">
         <v>1272</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B33" t="s">
         <v>1274</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B34" t="s">
         <v>1276</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B35" t="s">
         <v>1278</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B36" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B37" t="s">
         <v>1281</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B38" t="s">
         <v>1283</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B39" t="s">
         <v>1285</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1286</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B40" t="s">
         <v>1287</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B41" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B42" t="s">
         <v>1290</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B43" t="s">
         <v>1300</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B44" t="s">
         <v>1302</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B45" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B46" t="s">
         <v>1306</v>
       </c>
-      <c r="B46" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B47" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B48" t="s">
         <v>1309</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B49" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B50" t="s">
         <v>1312</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B51" t="s">
         <v>1315</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B52" t="s">
         <v>1317</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B53" t="s">
         <v>1319</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B54" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B55" t="s">
         <v>1325</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B56" t="s">
         <v>1329</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1330</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B57" t="s">
         <v>1334</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -14666,15 +14665,15 @@
         <v>822</v>
       </c>
       <c r="B58" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B59" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -14682,7 +14681,7 @@
         <v>432</v>
       </c>
       <c r="B60" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -14690,185 +14689,177 @@
         <v>234</v>
       </c>
       <c r="B61" t="s">
-        <v>1378</v>
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="10" t="s">
-        <v>1305</v>
+      <c r="A68" s="9" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
-        <v>1321</v>
+      <c r="A69" s="9" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B70" s="7" t="s">
+      <c r="A70" s="9" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>1217</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="B90" t="s">
         <v>1293</v>
       </c>
-      <c r="B90" t="s">
-        <v>1294</v>
-      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B91" t="s">
         <v>1296</v>
       </c>
-      <c r="B91" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+      <c r="B92" t="s">
         <v>1298</v>
       </c>
-      <c r="B92" t="s">
-        <v>1299</v>
-      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>1314</v>
+      <c r="A93" s="3" t="s">
+        <v>1313</v>
       </c>
       <c r="B93" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B94" t="s">
         <v>1323</v>
       </c>
-      <c r="B94" t="s">
-        <v>1324</v>
-      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B95" t="s">
         <v>1327</v>
       </c>
-      <c r="B95" t="s">
-        <v>1328</v>
-      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B96" t="s">
         <v>1331</v>
       </c>
-      <c r="B96" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
-        <v>1333</v>
-      </c>
       <c r="B97" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>1336</v>
+      <c r="A98" s="3" t="s">
+        <v>1335</v>
       </c>
       <c r="B98" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
   </sheetData>
@@ -14885,7 +14876,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14903,41 +14894,41 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1339</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1344</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>1352</v>
+      <c r="A2" s="11" t="s">
+        <v>1351</v>
       </c>
       <c r="B2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C2" s="4">
+        <v>1212</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2">
@@ -14947,16 +14938,16 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>1349</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>1356</v>
+        <v>1337</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>1355</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -14965,9 +14956,9 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>1301</v>
-      </c>
-      <c r="C3" s="4">
+        <v>1300</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3">
@@ -14980,14 +14971,14 @@
       <c r="G3" t="s">
         <v>1187</v>
       </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>1349</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>1356</v>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>1355</v>
       </c>
       <c r="K3">
         <f>K2+H3</f>
@@ -14997,12 +14988,12 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9">
+        <v>1215</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
         <v>2.3948</v>
       </c>
       <c r="E4">
@@ -15010,16 +15001,16 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>1239</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>1350</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>1356</v>
+        <v>1238</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>1355</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K11" si="0">K3+H4</f>
@@ -15029,29 +15020,29 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C5" s="4">
+        <v>1219</v>
+      </c>
+      <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5">
         <v>2.3039999999999998</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E42" si="1">E4+C5</f>
+        <f t="shared" ref="E5:E43" si="1">E4+C5</f>
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>1347</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>1351</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>1357</v>
+        <v>1346</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>1356</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
@@ -15061,7 +15052,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
@@ -15074,16 +15065,16 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>1358</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J6" s="19" t="s">
         <v>1357</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>1356</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -15093,9 +15084,9 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C7" s="4">
+        <v>1262</v>
+      </c>
+      <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7">
@@ -15106,16 +15097,16 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>1284</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>1357</v>
+        <v>1283</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>1356</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -15125,9 +15116,9 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C8" s="4">
+        <v>1315</v>
+      </c>
+      <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8">
@@ -15138,16 +15129,16 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>1211</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>1345</v>
+        <v>1210</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>1344</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
@@ -15157,29 +15148,29 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1.645</v>
+        <v>1378</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1.829</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>1231</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>1345</v>
+        <v>1230</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>1344</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
@@ -15189,29 +15180,29 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C10" s="4">
+        <v>1270</v>
+      </c>
+      <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1.61</v>
+        <v>1.645</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>1310</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>1345</v>
+        <v>1309</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1344</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
@@ -15221,29 +15212,29 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C11" s="4">
+        <v>1347</v>
+      </c>
+      <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1.5549999999999999</v>
+        <v>1.61</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>1286</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>1345</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>1345</v>
+        <v>1285</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>1344</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
@@ -15253,13 +15244,13 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C12" s="4">
+        <v>1258</v>
+      </c>
+      <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1.518</v>
+        <v>1.5549999999999999</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -15269,13 +15260,13 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C13" s="4">
+        <v>1306</v>
+      </c>
+      <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1.363</v>
+        <v>1.518</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
@@ -15283,17 +15274,15 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>1353</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C14" s="4">
+        <v>1250</v>
+      </c>
+      <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.236</v>
+        <v>1.363</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -15301,15 +15290,17 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="17" t="s">
+        <v>1352</v>
+      </c>
       <c r="B15" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C15" s="4">
+        <v>1248</v>
+      </c>
+      <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1.198</v>
+        <v>1.236</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
@@ -15317,31 +15308,31 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
       <c r="B16" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C16" s="2">
-        <v>2</v>
+        <v>1208</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1.1910000000000001</v>
+        <v>1.198</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
       <c r="B17" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
+        <v>1267</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>1.19</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
@@ -15349,15 +15340,15 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
       <c r="B18" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C18" s="4">
+        <v>1317</v>
+      </c>
+      <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1.155</v>
+        <v>1.19</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
@@ -15365,15 +15356,15 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
       <c r="B19" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C19" s="4">
+        <v>1245</v>
+      </c>
+      <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1.1359999999999999</v>
+        <v>1.155</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
@@ -15381,33 +15372,31 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12"/>
       <c r="B20" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C20" s="2">
-        <v>5</v>
+        <v>1334</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1.075</v>
+        <v>1.1359999999999999</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>1354</v>
-      </c>
+      <c r="A21" s="12"/>
       <c r="B21" t="s">
-        <v>1275</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
+        <v>1265</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>0.95499999999999996</v>
+        <v>1.075</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
@@ -15415,15 +15404,17 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+      <c r="A22" s="16" t="s">
+        <v>1353</v>
+      </c>
       <c r="B22" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C22" s="4">
+        <v>1274</v>
+      </c>
+      <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0.80300000000000005</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
@@ -15431,15 +15422,15 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
+      <c r="A23" s="13"/>
       <c r="B23" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C23" s="4">
+        <v>1325</v>
+      </c>
+      <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.77100000000000002</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
@@ -15447,15 +15438,15 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
+      <c r="A24" s="13"/>
       <c r="B24" t="s">
-        <v>1288</v>
-      </c>
-      <c r="C24" s="4">
+        <v>1254</v>
+      </c>
+      <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.748</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
@@ -15463,15 +15454,15 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C25" s="4">
+        <v>1287</v>
+      </c>
+      <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.74199999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
@@ -15479,15 +15470,15 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
+      <c r="A26" s="13"/>
       <c r="B26" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C26" s="4">
+        <v>1237</v>
+      </c>
+      <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0.72199999999999998</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
@@ -15495,15 +15486,15 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
+      <c r="A27" s="13"/>
       <c r="B27" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C27" s="4">
+        <v>1336</v>
+      </c>
+      <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.70699999999999996</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
@@ -15511,15 +15502,15 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C28" s="4">
+        <v>1221</v>
+      </c>
+      <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.69</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
@@ -15527,31 +15518,31 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
+        <v>1290</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0.68899999999999995</v>
+        <v>0.69</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
+        <v>1189</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>0.67600000000000005</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
@@ -15559,15 +15550,15 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0.65600000000000003</v>
+        <v>1329</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0.67600000000000005</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
@@ -15575,33 +15566,33 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>1355</v>
-      </c>
+      <c r="A32" s="13"/>
       <c r="B32" t="s">
-        <v>1273</v>
-      </c>
-      <c r="C32" s="2">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>0.60199999999999998</v>
+        <v>1376</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0.65600000000000003</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
+      <c r="A33" s="15" t="s">
+        <v>1354</v>
+      </c>
       <c r="B33" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1</v>
+        <v>1272</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>0.57299999999999995</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
@@ -15609,15 +15600,15 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
+      <c r="A34" s="14"/>
       <c r="B34" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C34" s="4">
+        <v>1252</v>
+      </c>
+      <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.53900000000000003</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
@@ -15625,15 +15616,15 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
+      <c r="A35" s="14"/>
       <c r="B35" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C35" s="4">
+        <v>1260</v>
+      </c>
+      <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.497</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
@@ -15641,15 +15632,15 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
+      <c r="A36" s="14"/>
       <c r="B36" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C36" s="4">
+        <v>1243</v>
+      </c>
+      <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0.434</v>
+        <v>0.497</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
@@ -15657,15 +15648,15 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
+      <c r="A37" s="14"/>
       <c r="B37" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C37" s="4">
+        <v>1377</v>
+      </c>
+      <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0.375</v>
+        <v>0.434</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
@@ -15673,15 +15664,15 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
+      <c r="A38" s="14"/>
       <c r="B38" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C38" s="4">
+        <v>1256</v>
+      </c>
+      <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0.35399999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
@@ -15689,17 +15680,15 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
-        <v>1360</v>
-      </c>
+      <c r="A39" s="14"/>
       <c r="B39" t="s">
-        <v>1282</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>1345</v>
+        <v>1240</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.35399999999999998</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
@@ -15707,15 +15696,17 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
+      <c r="A40" s="19" t="s">
+        <v>1359</v>
+      </c>
       <c r="B40" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>1345</v>
+        <v>1281</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>1344</v>
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
@@ -15723,15 +15714,15 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
+      <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>1345</v>
+        <v>1312</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1344</v>
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
@@ -15739,15 +15730,15 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
+      <c r="A42" s="3"/>
       <c r="B42" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>1345</v>
+        <v>1223</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1344</v>
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
@@ -15755,14 +15746,27 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C43" s="8"/>
+      <c r="A43" s="3"/>
+      <c r="B43" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D36">
     <sortCondition descending="1" ref="D2:D36"/>
   </sortState>
-  <conditionalFormatting sqref="D2:D30">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="D33:D36 D2:D8 D10:D31 D38:D39">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15773,8 +15777,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D30 D32:D35 D37:D38">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="D2:D8 D10:D31">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15785,7 +15789,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D38">
+  <conditionalFormatting sqref="D2:D8 D10:D39">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -15804,10 +15820,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D6738B-0240-924F-9711-81B5B1E4AC9C}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15821,573 +15837,582 @@
         <v>1184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>1352</v>
+      <c r="A2" s="11" t="s">
+        <v>1351</v>
       </c>
       <c r="B2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C2" t="s">
         <v>1212</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C3" t="s">
         <v>1300</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C4" t="s">
         <v>1215</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C5" t="s">
         <v>1219</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C6" t="s">
         <v>1276</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C7" t="s">
         <v>1302</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C8" t="s">
         <v>1262</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C9" t="s">
         <v>1315</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>1270</v>
+      <c r="B10" s="23" t="s">
+        <v>1190</v>
       </c>
       <c r="C10" t="s">
-        <v>1271</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>1319</v>
+        <v>1269</v>
       </c>
       <c r="C11" t="s">
-        <v>1320</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>1258</v>
+        <v>1318</v>
       </c>
       <c r="C12" t="s">
-        <v>1259</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>1306</v>
+        <v>1257</v>
       </c>
       <c r="C13" t="s">
-        <v>1307</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C15" t="s">
         <v>1250</v>
       </c>
-      <c r="C14" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
         <v>1353</v>
       </c>
-      <c r="B15" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C28" t="s">
         <v>1274</v>
       </c>
-      <c r="C27" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C29" t="s">
         <v>1325</v>
       </c>
-      <c r="C28" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C30" t="s">
         <v>1254</v>
       </c>
-      <c r="C29" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C31" t="s">
         <v>1287</v>
       </c>
-      <c r="C30" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="B32" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C32" t="s">
         <v>1237</v>
       </c>
-      <c r="C31" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="B33" t="s">
         <v>822</v>
       </c>
-      <c r="C32" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C34" t="s">
         <v>1221</v>
       </c>
-      <c r="C33" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="B35" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C35" t="s">
         <v>1290</v>
       </c>
-      <c r="C34" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="1" t="s">
         <v>1188</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="1" t="s">
-        <v>1242</v>
       </c>
       <c r="C36" t="s">
         <v>1189</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="B38" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C38" t="s">
         <v>1329</v>
       </c>
-      <c r="C37" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="B39" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+      <c r="B48" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="19"/>
+      <c r="B50" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="19"/>
+      <c r="B51" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="19"/>
+      <c r="B52" t="s">
+        <v>432</v>
+      </c>
+      <c r="C52" t="s">
         <v>1375</v>
       </c>
-      <c r="C38" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" t="s">
-        <v>1252</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="20" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
         <v>1360</v>
       </c>
-      <c r="B48" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B56" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="17"/>
+      <c r="B58" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="19" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="19"/>
+      <c r="B61" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" t="s">
-        <v>432</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="22" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="18" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="C61" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="19"/>
+      <c r="B62" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="19"/>
+      <c r="B63" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="19"/>
+      <c r="B64" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="19"/>
+      <c r="B65" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C65" t="s">
         <v>1368</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1369</v>
       </c>
     </row>
   </sheetData>
@@ -16398,10 +16423,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676D9898-E99A-FC48-AC4C-E3DE90F2E82B}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16415,296 +16440,305 @@
         <v>1184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>1352</v>
+      <c r="A2" s="11" t="s">
+        <v>1351</v>
       </c>
       <c r="B2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C2" t="s">
         <v>1212</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C3" t="s">
         <v>1300</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C4" t="s">
         <v>1215</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C5" t="s">
         <v>1219</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C6" t="s">
         <v>1276</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C7" t="s">
         <v>1302</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C8" t="s">
         <v>1262</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C9" t="s">
         <v>1315</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" t="s">
-        <v>1270</v>
+      <c r="B10" s="23" t="s">
+        <v>1190</v>
       </c>
       <c r="C10" t="s">
-        <v>1271</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>1319</v>
+        <v>1269</v>
       </c>
       <c r="C11" t="s">
-        <v>1320</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>1258</v>
+        <v>1318</v>
       </c>
       <c r="C12" t="s">
-        <v>1259</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>1306</v>
+        <v>1257</v>
       </c>
       <c r="C13" t="s">
-        <v>1307</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C15" t="s">
         <v>1250</v>
       </c>
-      <c r="C14" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C16" t="s">
         <v>1248</v>
       </c>
-      <c r="C15" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C17" t="s">
         <v>1208</v>
       </c>
-      <c r="C16" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C18" t="s">
         <v>1267</v>
       </c>
-      <c r="C17" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1268</v>
-      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
       <c r="B19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C20" t="s">
         <v>1317</v>
       </c>
-      <c r="C19" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="24" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C21" t="s">
         <v>1245</v>
       </c>
-      <c r="C20" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C22" t="s">
         <v>1334</v>
       </c>
-      <c r="C21" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C23" t="s">
         <v>1265</v>
       </c>
-      <c r="C22" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" t="s">
-        <v>1280</v>
-      </c>
       <c r="C24" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
       <c r="B25" t="s">
-        <v>1304</v>
+        <v>1279</v>
       </c>
       <c r="C25" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12"/>
       <c r="B26" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="C26" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="22"/>
+      <c r="B28" s="1" t="s">
         <v>1188</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="1" t="s">
-        <v>1242</v>
       </c>
       <c r="C28" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="22"/>
+      <c r="B29" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
         <v>1361</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="B32" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
         <v>1362</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1347</v>
+      <c r="B34" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1346</v>
       </c>
     </row>
   </sheetData>

--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF190D2A-85ED-A94F-9211-A190588014DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4B6D90-7EB9-714E-A3A1-0918F053F4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="4" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
+    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Venue analysis" sheetId="3" r:id="rId3"/>
     <sheet name="Selection re-organised" sheetId="4" r:id="rId4"/>
     <sheet name="Final Selection" sheetId="5" r:id="rId5"/>
+    <sheet name="Venues" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="1379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1393">
   <si>
     <t>A methodology for identifying breakthrough topics using structural entropy</t>
   </si>
@@ -4177,6 +4178,48 @@
   </si>
   <si>
     <t>Research and Politics</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>International Journal of Hospitality Management (x2)</t>
+  </si>
+  <si>
+    <t>Tourism &amp; Hospitality management</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>Scientometrics (x5)</t>
+  </si>
+  <si>
+    <t>IEEE Access (x2)</t>
+  </si>
+  <si>
+    <t>Cognitive Computation (x2)</t>
+  </si>
+  <si>
+    <t>Political Science</t>
+  </si>
+  <si>
+    <t>Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Information Systems</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence &amp; Machine Learning</t>
+  </si>
+  <si>
+    <t>Health informatics</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Food Science</t>
   </si>
 </sst>
 </file>
@@ -4305,7 +4348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4341,7 +4384,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14161,7 +14203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A500ACC7-7708-ED45-B02F-B4A7D5A5733F}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -14875,8 +14917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB2728D-8837-9F42-8814-CC53BBA54B14}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B2:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15822,7 +15864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D6738B-0240-924F-9711-81B5B1E4AC9C}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="C29" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -15916,7 +15958,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="C10" t="s">
@@ -16425,8 +16467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676D9898-E99A-FC48-AC4C-E3DE90F2E82B}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16519,7 +16561,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="C10" t="s">
@@ -16744,4 +16786,198 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1F197E-64CF-574D-8D17-9328D95882A8}">
+  <dimension ref="A1:A44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="135.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4B6D90-7EB9-714E-A3A1-0918F053F4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B559456-2F12-4341-BE87-E7A4C8C9E596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -14918,7 +14918,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B2:B39"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15864,8 +15864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D6738B-0240-924F-9711-81B5B1E4AC9C}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16468,7 +16468,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B559456-2F12-4341-BE87-E7A4C8C9E596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A4333C-9B9D-1F4D-8AF0-23E7B363DDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="2" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="3" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1392">
   <si>
     <t>A methodology for identifying breakthrough topics using structural entropy</t>
   </si>
@@ -4175,9 +4175,6 @@
   </si>
   <si>
     <t>Journal of Business Analytics</t>
-  </si>
-  <si>
-    <t>Research and Politics</t>
   </si>
   <si>
     <t>Transportation</t>
@@ -14203,8 +14200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A500ACC7-7708-ED45-B02F-B4A7D5A5733F}">
   <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14734,14 +14731,6 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1191</v>
-      </c>
-    </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>1304</v>
@@ -14758,6 +14747,14 @@
       </c>
       <c r="B70" s="6" t="s">
         <v>1291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -14915,10 +14912,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB2728D-8837-9F42-8814-CC53BBA54B14}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15071,7 +15068,7 @@
         <v>2.3039999999999998</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E43" si="1">E4+C5</f>
+        <f t="shared" ref="E5:E42" si="1">E4+C5</f>
         <v>4</v>
       </c>
       <c r="G5" t="s">
@@ -15190,13 +15187,13 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>1378</v>
+        <v>1270</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="8">
-        <v>1.829</v>
+      <c r="D9">
+        <v>1.645</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
@@ -15222,13 +15219,13 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>1270</v>
+        <v>1347</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1.645</v>
+        <v>1.61</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -15254,13 +15251,13 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>1347</v>
+        <v>1258</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1.61</v>
+        <v>1.5549999999999999</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
@@ -15286,13 +15283,13 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>1258</v>
+        <v>1306</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1.5549999999999999</v>
+        <v>1.518</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -15302,13 +15299,13 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>1306</v>
+        <v>1250</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1.518</v>
+        <v>1.363</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
@@ -15316,15 +15313,17 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="17" t="s">
+        <v>1352</v>
+      </c>
       <c r="B14" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.363</v>
+        <v>1.236</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -15332,17 +15331,15 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>1352</v>
-      </c>
+      <c r="A15" s="12"/>
       <c r="B15" t="s">
-        <v>1248</v>
+        <v>1208</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1.236</v>
+        <v>1.198</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
@@ -15352,29 +15349,29 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
+        <v>1267</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>1.198</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
+        <v>1317</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1.1910000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
@@ -15384,13 +15381,13 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" t="s">
-        <v>1317</v>
+        <v>1245</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1.19</v>
+        <v>1.155</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
@@ -15400,13 +15397,13 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" t="s">
-        <v>1245</v>
+        <v>1334</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1.155</v>
+        <v>1.1359999999999999</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
@@ -15416,29 +15413,31 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
+        <v>1265</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>1.1359999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="16" t="s">
+        <v>1353</v>
+      </c>
       <c r="B21" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5</v>
+        <v>1274</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1.075</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
@@ -15446,17 +15445,15 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>1353</v>
-      </c>
+      <c r="A22" s="13"/>
       <c r="B22" t="s">
-        <v>1274</v>
+        <v>1325</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0.95499999999999996</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
@@ -15466,13 +15463,13 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" t="s">
-        <v>1325</v>
+        <v>1254</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0.80300000000000005</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
@@ -15482,13 +15479,13 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" t="s">
-        <v>1254</v>
+        <v>1287</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.77100000000000002</v>
+        <v>0.748</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
@@ -15498,13 +15495,13 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" t="s">
-        <v>1287</v>
+        <v>1237</v>
       </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.748</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
@@ -15514,13 +15511,13 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" t="s">
-        <v>1237</v>
+        <v>1336</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0.74199999999999999</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
@@ -15530,13 +15527,13 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" t="s">
-        <v>1336</v>
+        <v>1221</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.72199999999999998</v>
+        <v>0.70699999999999996</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
@@ -15546,13 +15543,13 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" t="s">
-        <v>1221</v>
+        <v>1290</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.70699999999999996</v>
+        <v>0.69</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
@@ -15562,29 +15559,29 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
+        <v>1189</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>0.69</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2</v>
+        <v>1329</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0.68899999999999995</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
@@ -15594,13 +15591,13 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" t="s">
-        <v>1329</v>
+        <v>1376</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
       </c>
-      <c r="D31">
-        <v>0.67600000000000005</v>
+      <c r="D31" s="8">
+        <v>0.65600000000000003</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
@@ -15608,33 +15605,33 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
+      <c r="A32" s="15" t="s">
+        <v>1354</v>
+      </c>
       <c r="B32" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0.65600000000000003</v>
+        <v>1272</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>0.60199999999999998</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="15" t="s">
-        <v>1354</v>
-      </c>
+      <c r="A33" s="14"/>
       <c r="B33" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C33" s="2">
-        <v>3</v>
+        <v>1252</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>0.60199999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
@@ -15644,13 +15641,13 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" t="s">
-        <v>1252</v>
+        <v>1260</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.57299999999999995</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
@@ -15660,13 +15657,13 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" t="s">
-        <v>1260</v>
+        <v>1243</v>
       </c>
       <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.53900000000000003</v>
+        <v>0.497</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
@@ -15676,13 +15673,13 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" t="s">
-        <v>1243</v>
+        <v>1377</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0.497</v>
+        <v>0.434</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
@@ -15692,13 +15689,13 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" t="s">
-        <v>1377</v>
+        <v>1256</v>
       </c>
       <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0.434</v>
+        <v>0.375</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
@@ -15708,13 +15705,13 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
       <c r="B38" t="s">
-        <v>1256</v>
+        <v>1240</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0.375</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
@@ -15722,15 +15719,17 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="19" t="s">
+        <v>1359</v>
+      </c>
       <c r="B39" t="s">
-        <v>1240</v>
+        <v>1281</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
       </c>
-      <c r="D39">
-        <v>0.35399999999999998</v>
+      <c r="D39" s="3" t="s">
+        <v>1344</v>
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
@@ -15738,11 +15737,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>1359</v>
-      </c>
+      <c r="A40" s="3"/>
       <c r="B40" t="s">
-        <v>1281</v>
+        <v>1312</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -15758,7 +15755,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" t="s">
-        <v>1312</v>
+        <v>1223</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -15774,7 +15771,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" t="s">
-        <v>1223</v>
+        <v>1375</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -15785,29 +15782,13 @@
       <c r="E42">
         <f t="shared" si="1"/>
         <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D36">
     <sortCondition descending="1" ref="D2:D36"/>
   </sortState>
-  <conditionalFormatting sqref="D33:D36 D2:D8 D10:D31 D38:D39">
+  <conditionalFormatting sqref="D2:D30 D32:D35 D37:D38">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -15819,7 +15800,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D8 D10:D31">
+  <conditionalFormatting sqref="D2:D30">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -15831,7 +15812,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D8 D10:D39">
+  <conditionalFormatting sqref="D2:D38">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -15842,9 +15823,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D39">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15864,8 +15843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D6738B-0240-924F-9711-81B5B1E4AC9C}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15958,82 +15937,82 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
-        <v>1190</v>
+      <c r="B10" t="s">
+        <v>1269</v>
       </c>
       <c r="C10" t="s">
-        <v>1191</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>1269</v>
+        <v>1318</v>
       </c>
       <c r="C11" t="s">
-        <v>1270</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>1318</v>
+        <v>1257</v>
       </c>
       <c r="C12" t="s">
-        <v>1319</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>1257</v>
+        <v>1305</v>
       </c>
       <c r="C13" t="s">
-        <v>1258</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>1305</v>
+        <v>1249</v>
       </c>
       <c r="C14" t="s">
-        <v>1306</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="17" t="s">
+        <v>1352</v>
+      </c>
       <c r="B15" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C15" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1247</v>
+      <c r="A16" s="12"/>
+      <c r="B16" s="1" t="s">
+        <v>1207</v>
       </c>
       <c r="C16" t="s">
-        <v>1248</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="1" t="s">
-        <v>1207</v>
+      <c r="B17" t="s">
+        <v>1266</v>
       </c>
       <c r="C17" t="s">
-        <v>1208</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" t="s">
-        <v>1266</v>
+        <v>1307</v>
       </c>
       <c r="C18" t="s">
         <v>1267</v>
@@ -16042,43 +16021,43 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" t="s">
-        <v>1307</v>
+        <v>1316</v>
       </c>
       <c r="C19" t="s">
-        <v>1267</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" t="s">
-        <v>1316</v>
+        <v>1244</v>
       </c>
       <c r="C20" t="s">
-        <v>1317</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" t="s">
-        <v>1244</v>
+        <v>1333</v>
       </c>
       <c r="C21" t="s">
-        <v>1245</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" t="s">
-        <v>1333</v>
+        <v>1264</v>
       </c>
       <c r="C22" t="s">
-        <v>1334</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" t="s">
-        <v>1264</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>1265</v>
@@ -16087,7 +16066,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>1279</v>
       </c>
       <c r="C24" t="s">
         <v>1265</v>
@@ -16096,7 +16075,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" t="s">
-        <v>1279</v>
+        <v>1303</v>
       </c>
       <c r="C25" t="s">
         <v>1265</v>
@@ -16105,99 +16084,99 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" t="s">
-        <v>1303</v>
+        <v>1310</v>
       </c>
       <c r="C26" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
+      <c r="A27" s="16" t="s">
+        <v>1353</v>
+      </c>
       <c r="B27" t="s">
-        <v>1310</v>
+        <v>1273</v>
       </c>
       <c r="C27" t="s">
-        <v>1265</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
-        <v>1353</v>
-      </c>
+      <c r="A28" s="13"/>
       <c r="B28" t="s">
-        <v>1273</v>
+        <v>1324</v>
       </c>
       <c r="C28" t="s">
-        <v>1274</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" t="s">
-        <v>1324</v>
+        <v>1253</v>
       </c>
       <c r="C29" t="s">
-        <v>1325</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" t="s">
-        <v>1253</v>
+        <v>1286</v>
       </c>
       <c r="C30" t="s">
-        <v>1254</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" t="s">
-        <v>1286</v>
+        <v>1236</v>
       </c>
       <c r="C31" t="s">
-        <v>1287</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" t="s">
-        <v>1236</v>
+        <v>822</v>
       </c>
       <c r="C32" t="s">
-        <v>1237</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" t="s">
-        <v>822</v>
+        <v>1220</v>
       </c>
       <c r="C33" t="s">
-        <v>1336</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" t="s">
-        <v>1220</v>
+        <v>1289</v>
       </c>
       <c r="C34" t="s">
-        <v>1221</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
-      <c r="B35" t="s">
-        <v>1289</v>
+      <c r="B35" s="1" t="s">
+        <v>1188</v>
       </c>
       <c r="C35" t="s">
-        <v>1290</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="1" t="s">
-        <v>1188</v>
+        <v>1241</v>
       </c>
       <c r="C36" t="s">
         <v>1189</v>
@@ -16205,37 +16184,37 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
-      <c r="B37" s="1" t="s">
-        <v>1241</v>
+      <c r="B37" t="s">
+        <v>1328</v>
       </c>
       <c r="C37" t="s">
-        <v>1189</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" t="s">
-        <v>1328</v>
+        <v>1374</v>
       </c>
       <c r="C38" t="s">
-        <v>1329</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
+      <c r="A39" s="15" t="s">
+        <v>1354</v>
+      </c>
       <c r="B39" t="s">
-        <v>1374</v>
+        <v>1271</v>
       </c>
       <c r="C39" t="s">
-        <v>1376</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>1354</v>
-      </c>
+      <c r="A40" s="14"/>
       <c r="B40" t="s">
-        <v>1271</v>
+        <v>1288</v>
       </c>
       <c r="C40" t="s">
         <v>1272</v>
@@ -16244,7 +16223,7 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" t="s">
-        <v>1288</v>
+        <v>1321</v>
       </c>
       <c r="C41" t="s">
         <v>1272</v>
@@ -16253,101 +16232,92 @@
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" t="s">
-        <v>1321</v>
+        <v>1251</v>
       </c>
       <c r="C42" t="s">
-        <v>1272</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" t="s">
-        <v>1251</v>
+        <v>1259</v>
       </c>
       <c r="C43" t="s">
-        <v>1252</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" t="s">
-        <v>1259</v>
+        <v>1242</v>
       </c>
       <c r="C44" t="s">
-        <v>1260</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
       <c r="B45" t="s">
-        <v>1242</v>
+        <v>234</v>
       </c>
       <c r="C45" t="s">
-        <v>1243</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" t="s">
-        <v>234</v>
+        <v>1255</v>
       </c>
       <c r="C46" t="s">
-        <v>1377</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" t="s">
-        <v>1255</v>
+        <v>1239</v>
       </c>
       <c r="C47" t="s">
-        <v>1256</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
+      <c r="A48" s="19" t="s">
+        <v>1359</v>
+      </c>
       <c r="B48" t="s">
-        <v>1239</v>
+        <v>1280</v>
       </c>
       <c r="C48" t="s">
-        <v>1240</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
-        <v>1359</v>
-      </c>
+      <c r="A49" s="19"/>
       <c r="B49" t="s">
-        <v>1280</v>
+        <v>1311</v>
       </c>
       <c r="C49" t="s">
-        <v>1281</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" t="s">
-        <v>1311</v>
+        <v>1222</v>
       </c>
       <c r="C50" t="s">
-        <v>1312</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" t="s">
-        <v>1222</v>
+        <v>432</v>
       </c>
       <c r="C51" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" t="s">
-        <v>432</v>
-      </c>
-      <c r="C52" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -16804,7 +16774,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -16824,7 +16794,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -16834,7 +16804,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -16844,17 +16814,17 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -16869,7 +16839,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -16889,7 +16859,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
@@ -16904,7 +16874,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -16919,7 +16889,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
@@ -16929,7 +16899,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -16939,7 +16909,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
@@ -16949,7 +16919,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
@@ -16969,7 +16939,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">

--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A4333C-9B9D-1F4D-8AF0-23E7B363DDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56EFFA8-204C-F442-A15A-67C23D148792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="3" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="4" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1392">
   <si>
     <t>A methodology for identifying breakthrough topics using structural entropy</t>
   </si>
@@ -15843,8 +15843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D6738B-0240-924F-9711-81B5B1E4AC9C}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16030,25 +16030,25 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" t="s">
-        <v>1244</v>
+        <v>1333</v>
       </c>
       <c r="C20" t="s">
-        <v>1245</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" t="s">
-        <v>1333</v>
+        <v>1264</v>
       </c>
       <c r="C21" t="s">
-        <v>1334</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" t="s">
-        <v>1264</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>1265</v>
@@ -16057,7 +16057,7 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>1279</v>
       </c>
       <c r="C23" t="s">
         <v>1265</v>
@@ -16066,7 +16066,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" t="s">
-        <v>1279</v>
+        <v>1303</v>
       </c>
       <c r="C24" t="s">
         <v>1265</v>
@@ -16075,99 +16075,99 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" t="s">
-        <v>1303</v>
+        <v>1310</v>
       </c>
       <c r="C25" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="16" t="s">
+        <v>1353</v>
+      </c>
       <c r="B26" t="s">
-        <v>1310</v>
+        <v>1273</v>
       </c>
       <c r="C26" t="s">
-        <v>1265</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>1353</v>
-      </c>
+      <c r="A27" s="13"/>
       <c r="B27" t="s">
-        <v>1273</v>
+        <v>1324</v>
       </c>
       <c r="C27" t="s">
-        <v>1274</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" t="s">
-        <v>1324</v>
+        <v>1253</v>
       </c>
       <c r="C28" t="s">
-        <v>1325</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" t="s">
-        <v>1253</v>
+        <v>1286</v>
       </c>
       <c r="C29" t="s">
-        <v>1254</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" t="s">
-        <v>1286</v>
+        <v>1236</v>
       </c>
       <c r="C30" t="s">
-        <v>1287</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" t="s">
-        <v>1236</v>
+        <v>822</v>
       </c>
       <c r="C31" t="s">
-        <v>1237</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" t="s">
-        <v>822</v>
+        <v>1220</v>
       </c>
       <c r="C32" t="s">
-        <v>1336</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" t="s">
-        <v>1220</v>
+        <v>1289</v>
       </c>
       <c r="C33" t="s">
-        <v>1221</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
-      <c r="B34" t="s">
-        <v>1289</v>
+      <c r="B34" s="1" t="s">
+        <v>1188</v>
       </c>
       <c r="C34" t="s">
-        <v>1290</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="1" t="s">
-        <v>1188</v>
+        <v>1241</v>
       </c>
       <c r="C35" t="s">
         <v>1189</v>
@@ -16175,37 +16175,37 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
-      <c r="B36" s="1" t="s">
-        <v>1241</v>
+      <c r="B36" t="s">
+        <v>1328</v>
       </c>
       <c r="C36" t="s">
-        <v>1189</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" t="s">
-        <v>1328</v>
+        <v>1374</v>
       </c>
       <c r="C37" t="s">
-        <v>1329</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
+      <c r="A38" s="15" t="s">
+        <v>1354</v>
+      </c>
       <c r="B38" t="s">
-        <v>1374</v>
+        <v>1271</v>
       </c>
       <c r="C38" t="s">
-        <v>1376</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>1354</v>
-      </c>
+      <c r="A39" s="14"/>
       <c r="B39" t="s">
-        <v>1271</v>
+        <v>1288</v>
       </c>
       <c r="C39" t="s">
         <v>1272</v>
@@ -16214,7 +16214,7 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" t="s">
-        <v>1288</v>
+        <v>1321</v>
       </c>
       <c r="C40" t="s">
         <v>1272</v>
@@ -16223,101 +16223,92 @@
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" t="s">
-        <v>1321</v>
+        <v>1251</v>
       </c>
       <c r="C41" t="s">
-        <v>1272</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" t="s">
-        <v>1251</v>
+        <v>1259</v>
       </c>
       <c r="C42" t="s">
-        <v>1252</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" t="s">
-        <v>1259</v>
+        <v>1242</v>
       </c>
       <c r="C43" t="s">
-        <v>1260</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" t="s">
-        <v>1242</v>
+        <v>234</v>
       </c>
       <c r="C44" t="s">
-        <v>1243</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
       <c r="B45" t="s">
-        <v>234</v>
+        <v>1255</v>
       </c>
       <c r="C45" t="s">
-        <v>1377</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="14"/>
       <c r="B46" t="s">
-        <v>1255</v>
+        <v>1239</v>
       </c>
       <c r="C46" t="s">
-        <v>1256</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
+      <c r="A47" s="19" t="s">
+        <v>1359</v>
+      </c>
       <c r="B47" t="s">
-        <v>1239</v>
+        <v>1280</v>
       </c>
       <c r="C47" t="s">
-        <v>1240</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
-        <v>1359</v>
-      </c>
+      <c r="A48" s="19"/>
       <c r="B48" t="s">
-        <v>1280</v>
+        <v>1311</v>
       </c>
       <c r="C48" t="s">
-        <v>1281</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" t="s">
-        <v>1311</v>
+        <v>1222</v>
       </c>
       <c r="C49" t="s">
-        <v>1312</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" t="s">
-        <v>1222</v>
+        <v>432</v>
       </c>
       <c r="C50" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" t="s">
-        <v>432</v>
-      </c>
-      <c r="C51" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -16437,8 +16428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676D9898-E99A-FC48-AC4C-E3DE90F2E82B}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16633,25 +16624,25 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" t="s">
-        <v>1244</v>
+        <v>1333</v>
       </c>
       <c r="C21" t="s">
-        <v>1245</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" t="s">
-        <v>1333</v>
+        <v>1264</v>
       </c>
       <c r="C22" t="s">
-        <v>1334</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" t="s">
-        <v>1264</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>1265</v>
@@ -16660,7 +16651,7 @@
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>1279</v>
       </c>
       <c r="C24" t="s">
         <v>1265</v>
@@ -16669,7 +16660,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" t="s">
-        <v>1279</v>
+        <v>1303</v>
       </c>
       <c r="C25" t="s">
         <v>1265</v>
@@ -16678,36 +16669,27 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" t="s">
-        <v>1303</v>
+        <v>1310</v>
       </c>
       <c r="C26" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" t="s">
-        <v>1310</v>
+      <c r="A27" s="22"/>
+      <c r="B27" s="1" t="s">
+        <v>1188</v>
       </c>
       <c r="C27" t="s">
-        <v>1265</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="22"/>
       <c r="B28" s="1" t="s">
-        <v>1188</v>
+        <v>1241</v>
       </c>
       <c r="C28" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C29" t="s">
         <v>1189</v>
       </c>
     </row>

--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56EFFA8-204C-F442-A15A-67C23D148792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC05E7F9-0D21-A54A-9BA1-351344393310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" activeTab="4" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="4" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="1392">
   <si>
     <t>A methodology for identifying breakthrough topics using structural entropy</t>
   </si>
@@ -14915,7 +14915,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15416,14 +15416,14 @@
         <v>1265</v>
       </c>
       <c r="C20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>1.075</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -15441,7 +15441,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -15457,7 +15457,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -15489,7 +15489,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -15505,7 +15505,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -15521,7 +15521,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -15537,7 +15537,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -15569,7 +15569,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -15585,7 +15585,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -15601,7 +15601,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -15619,7 +15619,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -15635,7 +15635,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -15651,7 +15651,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -15667,7 +15667,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -15683,7 +15683,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -15715,7 +15715,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -15733,7 +15733,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="1"/>
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -15749,7 +15749,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -15765,7 +15765,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -15781,7 +15781,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -15843,8 +15843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D6738B-0240-924F-9711-81B5B1E4AC9C}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16073,92 +16073,92 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="16" t="s">
+        <v>1353</v>
+      </c>
       <c r="B25" t="s">
-        <v>1310</v>
+        <v>1273</v>
       </c>
       <c r="C25" t="s">
-        <v>1265</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>1353</v>
-      </c>
+      <c r="A26" s="13"/>
       <c r="B26" t="s">
-        <v>1273</v>
+        <v>1324</v>
       </c>
       <c r="C26" t="s">
-        <v>1274</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" t="s">
-        <v>1324</v>
+        <v>1253</v>
       </c>
       <c r="C27" t="s">
-        <v>1325</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" t="s">
-        <v>1253</v>
+        <v>1286</v>
       </c>
       <c r="C28" t="s">
-        <v>1254</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" t="s">
-        <v>1286</v>
+        <v>1236</v>
       </c>
       <c r="C29" t="s">
-        <v>1287</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" t="s">
-        <v>1236</v>
+        <v>822</v>
       </c>
       <c r="C30" t="s">
-        <v>1237</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" t="s">
-        <v>822</v>
+        <v>1220</v>
       </c>
       <c r="C31" t="s">
-        <v>1336</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" t="s">
-        <v>1220</v>
+        <v>1289</v>
       </c>
       <c r="C32" t="s">
-        <v>1221</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
-      <c r="B33" t="s">
-        <v>1289</v>
+      <c r="B33" s="1" t="s">
+        <v>1188</v>
       </c>
       <c r="C33" t="s">
-        <v>1290</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="1" t="s">
-        <v>1188</v>
+        <v>1241</v>
       </c>
       <c r="C34" t="s">
         <v>1189</v>
@@ -16166,37 +16166,37 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
-      <c r="B35" s="1" t="s">
-        <v>1241</v>
+      <c r="B35" t="s">
+        <v>1328</v>
       </c>
       <c r="C35" t="s">
-        <v>1189</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" t="s">
-        <v>1328</v>
+        <v>1374</v>
       </c>
       <c r="C36" t="s">
-        <v>1329</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
+      <c r="A37" s="15" t="s">
+        <v>1354</v>
+      </c>
       <c r="B37" t="s">
-        <v>1374</v>
+        <v>1271</v>
       </c>
       <c r="C37" t="s">
-        <v>1376</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
-        <v>1354</v>
-      </c>
+      <c r="A38" s="14"/>
       <c r="B38" t="s">
-        <v>1271</v>
+        <v>1288</v>
       </c>
       <c r="C38" t="s">
         <v>1272</v>
@@ -16205,7 +16205,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
       <c r="B39" t="s">
-        <v>1288</v>
+        <v>1321</v>
       </c>
       <c r="C39" t="s">
         <v>1272</v>
@@ -16214,101 +16214,92 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
       <c r="B40" t="s">
-        <v>1321</v>
+        <v>1251</v>
       </c>
       <c r="C40" t="s">
-        <v>1272</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
       <c r="B41" t="s">
-        <v>1251</v>
+        <v>1259</v>
       </c>
       <c r="C41" t="s">
-        <v>1252</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" t="s">
-        <v>1259</v>
+        <v>1242</v>
       </c>
       <c r="C42" t="s">
-        <v>1260</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="14"/>
       <c r="B43" t="s">
-        <v>1242</v>
+        <v>234</v>
       </c>
       <c r="C43" t="s">
-        <v>1243</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="14"/>
       <c r="B44" t="s">
-        <v>234</v>
+        <v>1255</v>
       </c>
       <c r="C44" t="s">
-        <v>1377</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="14"/>
       <c r="B45" t="s">
-        <v>1255</v>
+        <v>1239</v>
       </c>
       <c r="C45" t="s">
-        <v>1256</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="19" t="s">
+        <v>1359</v>
+      </c>
       <c r="B46" t="s">
-        <v>1239</v>
+        <v>1280</v>
       </c>
       <c r="C46" t="s">
-        <v>1240</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
-        <v>1359</v>
-      </c>
+      <c r="A47" s="19"/>
       <c r="B47" t="s">
-        <v>1280</v>
+        <v>1311</v>
       </c>
       <c r="C47" t="s">
-        <v>1281</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" t="s">
-        <v>1311</v>
+        <v>1222</v>
       </c>
       <c r="C48" t="s">
-        <v>1312</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" t="s">
-        <v>1222</v>
+        <v>432</v>
       </c>
       <c r="C49" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" t="s">
-        <v>432</v>
-      </c>
-      <c r="C50" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -16429,7 +16420,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B31" activeCellId="1" sqref="B2:B27 B31:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16667,29 +16658,20 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" t="s">
-        <v>1310</v>
+      <c r="A26" s="22"/>
+      <c r="B26" s="1" t="s">
+        <v>1188</v>
       </c>
       <c r="C26" t="s">
-        <v>1265</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
       <c r="B27" s="1" t="s">
-        <v>1188</v>
+        <v>1241</v>
       </c>
       <c r="C27" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="1" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C28" t="s">
         <v>1189</v>
       </c>
     </row>

--- a/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
+++ b/References/Snowballing/Forward snowballing (Incoming citations)/FS_Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/References/Snowballing/Forward snowballing (Incoming citations)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC05E7F9-0D21-A54A-9BA1-351344393310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D5642D-9FA3-374D-8C0A-FBBB1BCA189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" activeTab="4" xr2:uid="{4A77DC4E-57BF-3142-B74E-0CA903189B7B}"/>
   </bookViews>
@@ -15844,7 +15844,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16420,7 +16420,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" activeCellId="1" sqref="B2:B27 B31:B34"/>
+      <selection activeCell="B34" activeCellId="4" sqref="B2:B27 B31 B32 B33 B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
